--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/47_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/47_225-80R17.xlsx
@@ -689,61 +689,61 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.006717760015064258</v>
+        <v>0.01058546656398339</v>
       </c>
       <c r="E2">
-        <v>0.1397770317773231</v>
+        <v>0.1320567666917444</v>
       </c>
       <c r="F2">
-        <v>0.1325986074883479</v>
+        <v>0.125503502723725</v>
       </c>
       <c r="G2">
-        <v>0.06385990290980667</v>
+        <v>0.06275116909324868</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1139396756786888</v>
+        <v>0.108469554800395</v>
       </c>
       <c r="J2">
-        <v>0.0028865413027049</v>
+        <v>0.007087904072467494</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0142570142133272</v>
+        <v>0.01746813619930933</v>
       </c>
       <c r="M2">
-        <v>0.1306292635068486</v>
+        <v>0.1237056665364135</v>
       </c>
       <c r="N2">
-        <v>0.1322195687375689</v>
+        <v>0.1251574740009901</v>
       </c>
       <c r="O2">
-        <v>0.002897953320952403</v>
+        <v>0.007098322231797891</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0004402936331514499</v>
+        <v>0.004854697164600988</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.002776515887479863</v>
+        <v>0.006987460638068112</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0425791431210551</v>
+        <v>0.04332372503008762</v>
       </c>
       <c r="V2">
-        <v>0.1288966896337549</v>
+        <v>0.1221239804340868</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -755,31 +755,31 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.02890383115953231</v>
+        <v>0.03083937950783841</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01658772140463941</v>
+        <v>0.01959586490995239</v>
       </c>
       <c r="AC2">
-        <v>0.004651554559461711</v>
+        <v>0.008699204451625257</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.002499941331262894</v>
+        <v>0.00673497262666549</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.03288099031902953</v>
+        <v>0.0344701726688167</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.002486579654183525</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -799,37 +799,37 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2239483152900972</v>
+        <v>0.1896908849878233</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00182111045225064</v>
       </c>
       <c r="F3">
-        <v>0.2295015550073057</v>
+        <v>0.1941501138443676</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.008135466590761279</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.005447780907999147</v>
       </c>
       <c r="I3">
-        <v>0.02174007473126673</v>
+        <v>0.02731849206972089</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.004702269881157305</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00015328602974299</v>
       </c>
       <c r="L3">
-        <v>0.1514907613266197</v>
+        <v>0.1315077645100036</v>
       </c>
       <c r="M3">
-        <v>0.1077725535354815</v>
+        <v>0.09640222185991236</v>
       </c>
       <c r="N3">
-        <v>0.002806306315494903</v>
+        <v>0.01211475321056387</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.006708009295296055</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.006453880377123393</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -850,46 +850,46 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.1764939049808979</v>
+        <v>0.1515851869454115</v>
       </c>
       <c r="V3">
-        <v>0.02293837093122052</v>
+        <v>0.02828071903373305</v>
       </c>
       <c r="W3">
-        <v>0.002270989748966309</v>
+        <v>0.0116848961897237</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0002856859369158111</v>
       </c>
       <c r="Y3">
-        <v>0.0009670679853523517</v>
+        <v>0.01063785232864826</v>
       </c>
       <c r="Z3">
-        <v>0.009207595291252578</v>
+        <v>0.01725496216486532</v>
       </c>
       <c r="AA3">
-        <v>0.001952226167380411</v>
+        <v>0.01142893033306917</v>
       </c>
       <c r="AB3">
-        <v>0.02038127746830636</v>
+        <v>0.02622738340635632</v>
       </c>
       <c r="AC3">
-        <v>0.001410089479179437</v>
+        <v>0.01099359678232658</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.002652753578110785</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.02095210231928025</v>
+        <v>0.02668575343486555</v>
       </c>
       <c r="AG3">
-        <v>0.006166809421898033</v>
+        <v>0.01481322350676646</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.002863022342485066</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0304594668943248</v>
+        <v>0.03329170425928037</v>
       </c>
       <c r="E4">
-        <v>0.0277874967991231</v>
+        <v>0.03087075956005013</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.007067024177317712</v>
+        <v>0.01209692730444689</v>
       </c>
       <c r="H4">
-        <v>0.2685343530200437</v>
+        <v>0.2490000067664582</v>
       </c>
       <c r="I4">
-        <v>0.2787831296053266</v>
+        <v>0.258285934551463</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -933,16 +933,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.04292124016468483</v>
+        <v>0.04458272282122641</v>
       </c>
       <c r="M4">
-        <v>0.06150898836525615</v>
+        <v>0.06142419517064002</v>
       </c>
       <c r="N4">
-        <v>0.06466695272803022</v>
+        <v>0.06428547610269279</v>
       </c>
       <c r="O4">
-        <v>0.1292588944478706</v>
+        <v>0.1228091546425275</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -951,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.002870236128441033</v>
       </c>
       <c r="S4">
-        <v>0.01069704889947383</v>
+        <v>0.01538591961950316</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0229010857825137</v>
+        <v>0.02644341553020322</v>
       </c>
       <c r="V4">
-        <v>0.01895120432673544</v>
+        <v>0.02286461628011942</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.00240414388392867</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.0001558430396089032</v>
       </c>
       <c r="AB4">
-        <v>0.02974042253955745</v>
+        <v>0.03264021245467092</v>
       </c>
       <c r="AC4">
-        <v>0.004233849681801296</v>
+        <v>0.009529922984588662</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -996,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.003109953656554523</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.002488842567940631</v>
+        <v>0.007948855243596177</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2240655399078617</v>
+        <v>0.2769915263604423</v>
       </c>
       <c r="F5">
-        <v>0.1224484730596089</v>
+        <v>0.1396817715162406</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1034,22 +1034,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1922860765434605</v>
+        <v>0.2340496224166636</v>
       </c>
       <c r="J5">
-        <v>0.008631109534692908</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05173488672492526</v>
+        <v>0.04413025143281425</v>
       </c>
       <c r="M5">
-        <v>0.08560041408588998</v>
+        <v>0.08989094305509585</v>
       </c>
       <c r="N5">
-        <v>0.03112036047580036</v>
+        <v>0.01627493506431812</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.03992017808853513</v>
+        <v>0.02816566205098351</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.02878380423763225</v>
+        <v>0.01311767050046627</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.01907597829582865</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.09880722388466723</v>
+        <v>0.1077366049304985</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1082,16 +1082,16 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.007068997108550591</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0409866120879309</v>
+        <v>0.02960667777360051</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03413934952111197</v>
+        <v>0.02035433489887647</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.006025578015524376</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.009305418427979361</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01082574759788641</v>
+        <v>0.01587163875972309</v>
       </c>
       <c r="E6">
-        <v>0.06703071596047668</v>
+        <v>0.06536841334638063</v>
       </c>
       <c r="F6">
-        <v>0.1293224529979929</v>
+        <v>0.1202254866013044</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0025729556514727</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.00406704546654178</v>
       </c>
       <c r="I6">
-        <v>0.1123217524068252</v>
+        <v>0.1052538591902236</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.02607719586829163</v>
+        <v>0.02930279118543588</v>
       </c>
       <c r="L6">
-        <v>0.1422592032824563</v>
+        <v>0.1316182056325308</v>
       </c>
       <c r="M6">
-        <v>0.1795460464882402</v>
+        <v>0.1644547773266648</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1168,25 +1168,25 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.05139639322928575</v>
+        <v>0.05160008341781362</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0004299512903165988</v>
+        <v>0.006716604934865061</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.1215108359126135</v>
+        <v>0.1133462041944904</v>
       </c>
       <c r="V6">
-        <v>0.07048538547169758</v>
+        <v>0.06841076001162869</v>
       </c>
       <c r="W6">
-        <v>0.001540512174879173</v>
+        <v>0.007694617793325096</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1195,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01313821312103466</v>
+        <v>0.01790810614104574</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.004966847473502925</v>
       </c>
       <c r="AB6">
-        <v>0.0441520798308517</v>
+        <v>0.04522039568266217</v>
       </c>
       <c r="AC6">
-        <v>0.0209722768113513</v>
+        <v>0.02480715609825936</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1213,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0004991085624496702</v>
+        <v>0.00677750812562421</v>
       </c>
       <c r="AG6">
-        <v>0.008492128993350919</v>
+        <v>0.01381654296650485</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1239,40 +1239,40 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03217797869056187</v>
+        <v>0.03474315651434916</v>
       </c>
       <c r="E7">
-        <v>0.08878068703163784</v>
+        <v>0.083564586677359</v>
       </c>
       <c r="F7">
-        <v>0.3301057668959236</v>
+        <v>0.2917142649963213</v>
       </c>
       <c r="G7">
-        <v>0.02646912308686613</v>
+        <v>0.02981910776588531</v>
       </c>
       <c r="H7">
-        <v>0.00452219676715344</v>
+        <v>0.01088926567857631</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.006723115806382782</v>
       </c>
       <c r="K7">
-        <v>0.007519195652072471</v>
+        <v>0.01347426162748061</v>
       </c>
       <c r="L7">
-        <v>0.1353672514818801</v>
+        <v>0.1237468106292036</v>
       </c>
       <c r="M7">
-        <v>0.06132997313253687</v>
+        <v>0.05988757278830512</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03998704916521571</v>
+        <v>0.04147869974169797</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1281,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.003210496428309237</v>
+        <v>0.009757887192200838</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.009399348732113981</v>
+        <v>0.01509594661364587</v>
       </c>
       <c r="U7">
-        <v>0.05407289159902403</v>
+        <v>0.05362813556949358</v>
       </c>
       <c r="V7">
-        <v>0.1065186371419475</v>
+        <v>0.09886406823797882</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.01856931026282294</v>
+        <v>0.02300529670642421</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.004702219567401774</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.0002491147823587622</v>
       </c>
       <c r="AC7">
-        <v>0.0107889222665682</v>
+        <v>0.01629449292453842</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.001771773216103812</v>
+        <v>0.00851694789994412</v>
       </c>
       <c r="AG7">
-        <v>0.04283011929658576</v>
+        <v>0.04393092780525327</v>
       </c>
       <c r="AH7">
-        <v>0.02657927915267657</v>
+        <v>0.02991412047519932</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1352,43 +1352,43 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2359092651043313</v>
+        <v>0.2119823246241515</v>
       </c>
       <c r="F8">
-        <v>0.1437979529138424</v>
+        <v>0.1322335388571589</v>
       </c>
       <c r="G8">
-        <v>0.02561493602729278</v>
+        <v>0.02991220751523627</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02964394966930325</v>
+        <v>0.03340047554820606</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02170020443088616</v>
+        <v>0.02652288340299825</v>
       </c>
       <c r="L8">
-        <v>0.08118002499258589</v>
+        <v>0.07801974469647939</v>
       </c>
       <c r="M8">
-        <v>0.2018569097806975</v>
+        <v>0.1825002346941983</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.003457524743313845</v>
       </c>
       <c r="O8">
-        <v>0.01661148511257918</v>
+        <v>0.02211713586674805</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.002078137160192933</v>
       </c>
       <c r="Q8">
-        <v>0.006037776361213974</v>
+        <v>0.0129625552411746</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1400,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.007033639980071077</v>
+        <v>0.01382476111475</v>
       </c>
       <c r="V8">
-        <v>0.1358875119832358</v>
+        <v>0.1253847811519948</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1415,37 +1415,37 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.002933291587905228</v>
+        <v>0.01027473237538491</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.004933405956225309</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.02600699832301328</v>
+        <v>0.03025164999287756</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.005386077082851296</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.001784761299671937</v>
       </c>
       <c r="AG8">
-        <v>0.03809942534023509</v>
+        <v>0.04072111730005364</v>
       </c>
       <c r="AH8">
-        <v>0.02768662839280721</v>
+        <v>0.03170585203840683</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.0005460993379257939</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1459,40 +1459,40 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2846674295766609</v>
+        <v>0.2508505950820307</v>
       </c>
       <c r="E9">
-        <v>0.143218803000756</v>
+        <v>0.1303634994188532</v>
       </c>
       <c r="F9">
-        <v>0.08954821170842131</v>
+        <v>0.08464645130125491</v>
       </c>
       <c r="G9">
-        <v>0.001934603534053032</v>
+        <v>0.01001646411055936</v>
       </c>
       <c r="H9">
-        <v>0.0201593005627557</v>
+        <v>0.02554040992385704</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01037494060580133</v>
+        <v>0.01720601218049045</v>
       </c>
       <c r="K9">
-        <v>0.08980357385550941</v>
+        <v>0.08486397086429179</v>
       </c>
       <c r="L9">
-        <v>0.14219916065173</v>
+        <v>0.1294949597361197</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.01549169060321005</v>
+        <v>0.02156450162889465</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.00130955439162994</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.002437953791281674</v>
       </c>
       <c r="T9">
-        <v>0.009635000086265107</v>
+        <v>0.01657572480110342</v>
       </c>
       <c r="U9">
-        <v>0.09568040637086116</v>
+        <v>0.08986990481087334</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.005370780845217448</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1522,37 +1522,37 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.00496754284502457</v>
       </c>
       <c r="Z9">
-        <v>0.002732972858397663</v>
+        <v>0.01069652162320858</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.0002491514807792807</v>
       </c>
       <c r="AB9">
-        <v>0.03148716694653165</v>
+        <v>0.03518957905106158</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.0001979431645828135</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.002195411087082778</v>
       </c>
       <c r="AF9">
-        <v>0.03968010248628553</v>
+        <v>0.04216838847492577</v>
       </c>
       <c r="AG9">
-        <v>0.02338663715276115</v>
+        <v>0.02828948159652252</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.005935197790354629</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1569,43 +1569,43 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1607611535872145</v>
+        <v>0.1433680480389829</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1907379112272314</v>
+        <v>0.168387135751217</v>
       </c>
       <c r="G10">
-        <v>0.008140481464908471</v>
+        <v>0.01598836180397909</v>
       </c>
       <c r="H10">
-        <v>0.0404088169616421</v>
+        <v>0.04292003753140518</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.003699316440505213</v>
       </c>
       <c r="J10">
-        <v>0.001863174265314584</v>
+        <v>0.01074921948881342</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.005045095370162006</v>
       </c>
       <c r="L10">
-        <v>0.3071647965766751</v>
+        <v>0.2655589010101604</v>
       </c>
       <c r="M10">
-        <v>0.002082737387359943</v>
+        <v>0.01093247042858456</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.0009310162203451214</v>
       </c>
       <c r="O10">
-        <v>0.02591291522525726</v>
+        <v>0.03082152303007716</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.006118871321145159</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1614,19 +1614,19 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.0007242534203213846</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.09654698186308802</v>
+        <v>0.08977385970055783</v>
       </c>
       <c r="V10">
-        <v>0.05188076549729144</v>
+        <v>0.0524947116869749</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.0006776124362768196</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1635,34 +1635,34 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.008156744930693502</v>
+        <v>0.01600193555607953</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02095142649554228</v>
+        <v>0.02668058413326023</v>
       </c>
       <c r="AC10">
-        <v>0.0102304476623654</v>
+        <v>0.01773268146115166</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.001058598741045013</v>
       </c>
       <c r="AF10">
-        <v>0.025384231186584</v>
+        <v>0.03038027476385483</v>
       </c>
       <c r="AG10">
-        <v>0.04977741566883214</v>
+        <v>0.05073922183448042</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.003854802246566035</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.005361467584054055</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1679,43 +1679,43 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2028387354352437</v>
+        <v>0.1789080923896882</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.001207069483745379</v>
       </c>
       <c r="F11">
-        <v>0.196107628753864</v>
+        <v>0.1732784292916821</v>
       </c>
       <c r="G11">
-        <v>0.01934226293119564</v>
+        <v>0.02543803630991031</v>
       </c>
       <c r="H11">
-        <v>0.01320420793075235</v>
+        <v>0.02030438097428521</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01752877682073658</v>
+        <v>0.02392129971397434</v>
       </c>
       <c r="K11">
-        <v>0.006748507734554245</v>
+        <v>0.01490505826456446</v>
       </c>
       <c r="L11">
-        <v>0.2899320069119276</v>
+        <v>0.2517498700832791</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.001587111780911989</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.0008898945185424556</v>
       </c>
       <c r="O11">
-        <v>0.007217643266285018</v>
+        <v>0.01529742687732975</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.002846192215774206</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1724,19 +1724,19 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.005135214482103239</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.1099464704303807</v>
+        <v>0.101216238562038</v>
       </c>
       <c r="V11">
-        <v>0.03464585966608991</v>
+        <v>0.03823743139950647</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.002452466898525084</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1745,34 +1745,34 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.007707264823924251</v>
+        <v>0.0157069292883753</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.02378189469234203</v>
+        <v>0.02915118962593205</v>
       </c>
       <c r="AC11">
-        <v>0.01636131641935919</v>
+        <v>0.02294487651179886</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.001056219317009949</v>
       </c>
       <c r="AF11">
-        <v>0.01765452475337437</v>
+        <v>0.02402647090342819</v>
       </c>
       <c r="AG11">
-        <v>0.0369828994299705</v>
+        <v>0.04019205002911262</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.005200368893919476</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.004347682184563226</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.006717760015064258</v>
+        <v>0.01058546656398339</v>
       </c>
       <c r="E2">
-        <v>0.1464947917923873</v>
+        <v>0.1426422332557278</v>
       </c>
       <c r="F2">
-        <v>0.2790933992807352</v>
+        <v>0.2681457359794528</v>
       </c>
       <c r="G2">
-        <v>0.3429533021905419</v>
+        <v>0.3308969050727015</v>
       </c>
       <c r="H2">
-        <v>0.3429533021905419</v>
+        <v>0.3308969050727015</v>
       </c>
       <c r="I2">
-        <v>0.4568929778692307</v>
+        <v>0.4393664598730965</v>
       </c>
       <c r="J2">
-        <v>0.4597795191719355</v>
+        <v>0.446454363945564</v>
       </c>
       <c r="K2">
-        <v>0.4597795191719355</v>
+        <v>0.446454363945564</v>
       </c>
       <c r="L2">
-        <v>0.4740365333852627</v>
+        <v>0.4639225001448733</v>
       </c>
       <c r="M2">
-        <v>0.6046657968921113</v>
+        <v>0.5876281666812868</v>
       </c>
       <c r="N2">
-        <v>0.7368853656296802</v>
+        <v>0.7127856406822769</v>
       </c>
       <c r="O2">
-        <v>0.7397833189506327</v>
+        <v>0.7198839629140747</v>
       </c>
       <c r="P2">
-        <v>0.7397833189506327</v>
+        <v>0.7198839629140747</v>
       </c>
       <c r="Q2">
-        <v>0.7402236125837841</v>
+        <v>0.7247386600786757</v>
       </c>
       <c r="R2">
-        <v>0.7402236125837841</v>
+        <v>0.7247386600786757</v>
       </c>
       <c r="S2">
-        <v>0.743000128471264</v>
+        <v>0.7317261207167438</v>
       </c>
       <c r="T2">
-        <v>0.743000128471264</v>
+        <v>0.7317261207167438</v>
       </c>
       <c r="U2">
-        <v>0.7855792715923191</v>
+        <v>0.7750498457468314</v>
       </c>
       <c r="V2">
-        <v>0.914475961226074</v>
+        <v>0.8971738261809182</v>
       </c>
       <c r="W2">
-        <v>0.914475961226074</v>
+        <v>0.8971738261809182</v>
       </c>
       <c r="X2">
-        <v>0.914475961226074</v>
+        <v>0.8971738261809182</v>
       </c>
       <c r="Y2">
-        <v>0.914475961226074</v>
+        <v>0.8971738261809182</v>
       </c>
       <c r="Z2">
-        <v>0.9433797923856063</v>
+        <v>0.9280132056887567</v>
       </c>
       <c r="AA2">
-        <v>0.9433797923856063</v>
+        <v>0.9280132056887567</v>
       </c>
       <c r="AB2">
-        <v>0.9599675137902457</v>
+        <v>0.947609070598709</v>
       </c>
       <c r="AC2">
-        <v>0.9646190683497075</v>
+        <v>0.9563082750503343</v>
       </c>
       <c r="AD2">
-        <v>0.9646190683497075</v>
+        <v>0.9563082750503343</v>
       </c>
       <c r="AE2">
-        <v>0.9671190096809703</v>
+        <v>0.9630432476769998</v>
       </c>
       <c r="AF2">
-        <v>0.9671190096809703</v>
+        <v>0.9630432476769998</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.9975134203458165</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2022,103 +2022,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2239483152900972</v>
+        <v>0.1896908849878233</v>
       </c>
       <c r="E3">
-        <v>0.2239483152900972</v>
+        <v>0.1915119954400739</v>
       </c>
       <c r="F3">
-        <v>0.4534498702974029</v>
+        <v>0.3856621092844416</v>
       </c>
       <c r="G3">
-        <v>0.4534498702974029</v>
+        <v>0.3937975758752028</v>
       </c>
       <c r="H3">
-        <v>0.4534498702974029</v>
+        <v>0.3992453567832019</v>
       </c>
       <c r="I3">
-        <v>0.4751899450286696</v>
+        <v>0.4265638488529228</v>
       </c>
       <c r="J3">
-        <v>0.4751899450286696</v>
+        <v>0.4312661187340801</v>
       </c>
       <c r="K3">
-        <v>0.4751899450286696</v>
+        <v>0.4314194047638231</v>
       </c>
       <c r="L3">
-        <v>0.6266807063552893</v>
+        <v>0.5629271692738267</v>
       </c>
       <c r="M3">
-        <v>0.7344532598907708</v>
+        <v>0.659329391133739</v>
       </c>
       <c r="N3">
-        <v>0.7372595662062658</v>
+        <v>0.6714441443443029</v>
       </c>
       <c r="O3">
-        <v>0.7372595662062658</v>
+        <v>0.6714441443443029</v>
       </c>
       <c r="P3">
-        <v>0.7372595662062658</v>
+        <v>0.6714441443443029</v>
       </c>
       <c r="Q3">
-        <v>0.7372595662062658</v>
+        <v>0.6781521536395989</v>
       </c>
       <c r="R3">
-        <v>0.7372595662062658</v>
+        <v>0.6846060340167223</v>
       </c>
       <c r="S3">
-        <v>0.7372595662062658</v>
+        <v>0.6846060340167223</v>
       </c>
       <c r="T3">
-        <v>0.7372595662062658</v>
+        <v>0.6846060340167223</v>
       </c>
       <c r="U3">
-        <v>0.9137534711871637</v>
+        <v>0.8361912209621337</v>
       </c>
       <c r="V3">
-        <v>0.9366918421183842</v>
+        <v>0.8644719399958668</v>
       </c>
       <c r="W3">
-        <v>0.9389628318673505</v>
+        <v>0.8761568361855905</v>
       </c>
       <c r="X3">
-        <v>0.9389628318673505</v>
+        <v>0.8764425221225063</v>
       </c>
       <c r="Y3">
-        <v>0.9399298998527029</v>
+        <v>0.8870803744511545</v>
       </c>
       <c r="Z3">
-        <v>0.9491374951439555</v>
+        <v>0.9043353366160198</v>
       </c>
       <c r="AA3">
-        <v>0.951089721311336</v>
+        <v>0.915764266949089</v>
       </c>
       <c r="AB3">
-        <v>0.9714709987796423</v>
+        <v>0.9419916503554453</v>
       </c>
       <c r="AC3">
-        <v>0.9728810882588217</v>
+        <v>0.9529852471377719</v>
       </c>
       <c r="AD3">
-        <v>0.9728810882588217</v>
+        <v>0.9556380007158827</v>
       </c>
       <c r="AE3">
-        <v>0.9728810882588217</v>
+        <v>0.9556380007158827</v>
       </c>
       <c r="AF3">
-        <v>0.9938331905781019</v>
+        <v>0.9823237541507482</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9971369776575147</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,97 +2132,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0304594668943248</v>
+        <v>0.03329170425928037</v>
       </c>
       <c r="E4">
-        <v>0.0582469636934479</v>
+        <v>0.0641624638193305</v>
       </c>
       <c r="F4">
-        <v>0.0582469636934479</v>
+        <v>0.0641624638193305</v>
       </c>
       <c r="G4">
-        <v>0.0653139878707656</v>
+        <v>0.07625939112377739</v>
       </c>
       <c r="H4">
-        <v>0.3338483408908093</v>
+        <v>0.3252593978902356</v>
       </c>
       <c r="I4">
-        <v>0.612631470496136</v>
+        <v>0.5835453324416986</v>
       </c>
       <c r="J4">
-        <v>0.612631470496136</v>
+        <v>0.5835453324416986</v>
       </c>
       <c r="K4">
-        <v>0.612631470496136</v>
+        <v>0.5835453324416986</v>
       </c>
       <c r="L4">
-        <v>0.6555527106608208</v>
+        <v>0.628128055262925</v>
       </c>
       <c r="M4">
-        <v>0.717061699026077</v>
+        <v>0.6895522504335651</v>
       </c>
       <c r="N4">
-        <v>0.7817286517541072</v>
+        <v>0.7538377265362578</v>
       </c>
       <c r="O4">
-        <v>0.9109875462019777</v>
+        <v>0.8766468811787853</v>
       </c>
       <c r="P4">
-        <v>0.9109875462019777</v>
+        <v>0.8766468811787853</v>
       </c>
       <c r="Q4">
-        <v>0.9109875462019777</v>
+        <v>0.8766468811787853</v>
       </c>
       <c r="R4">
-        <v>0.9109875462019777</v>
+        <v>0.8795171173072264</v>
       </c>
       <c r="S4">
-        <v>0.9216845951014516</v>
+        <v>0.8949030369267296</v>
       </c>
       <c r="T4">
-        <v>0.9216845951014516</v>
+        <v>0.8949030369267296</v>
       </c>
       <c r="U4">
-        <v>0.9445856808839653</v>
+        <v>0.9213464524569328</v>
       </c>
       <c r="V4">
-        <v>0.9635368852107008</v>
+        <v>0.9442110687370522</v>
       </c>
       <c r="W4">
-        <v>0.9635368852107008</v>
+        <v>0.9442110687370522</v>
       </c>
       <c r="X4">
-        <v>0.9635368852107008</v>
+        <v>0.9442110687370522</v>
       </c>
       <c r="Y4">
-        <v>0.9635368852107008</v>
+        <v>0.9442110687370522</v>
       </c>
       <c r="Z4">
-        <v>0.9635368852107008</v>
+        <v>0.9466152126209808</v>
       </c>
       <c r="AA4">
-        <v>0.9635368852107008</v>
+        <v>0.9467710556605897</v>
       </c>
       <c r="AB4">
-        <v>0.9932773077502582</v>
+        <v>0.9794112681152607</v>
       </c>
       <c r="AC4">
-        <v>0.9975111574320595</v>
+        <v>0.9889411910998493</v>
       </c>
       <c r="AD4">
-        <v>0.9975111574320595</v>
+        <v>0.9889411910998493</v>
       </c>
       <c r="AE4">
-        <v>0.9975111574320595</v>
+        <v>0.9889411910998493</v>
       </c>
       <c r="AF4">
-        <v>0.9975111574320595</v>
+        <v>0.9889411910998493</v>
       </c>
       <c r="AG4">
-        <v>0.9975111574320595</v>
+        <v>0.9920511447564039</v>
       </c>
       <c r="AH4">
-        <v>0.9975111574320595</v>
+        <v>0.9920511447564039</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -2245,88 +2245,88 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2240655399078617</v>
+        <v>0.2769915263604423</v>
       </c>
       <c r="F5">
-        <v>0.3465140129674705</v>
+        <v>0.4166732978766829</v>
       </c>
       <c r="G5">
-        <v>0.3465140129674705</v>
+        <v>0.4166732978766829</v>
       </c>
       <c r="H5">
-        <v>0.3465140129674705</v>
+        <v>0.4166732978766829</v>
       </c>
       <c r="I5">
-        <v>0.5388000895109311</v>
+        <v>0.6507229202933464</v>
       </c>
       <c r="J5">
-        <v>0.547431199045624</v>
+        <v>0.6507229202933464</v>
       </c>
       <c r="K5">
-        <v>0.547431199045624</v>
+        <v>0.6507229202933464</v>
       </c>
       <c r="L5">
-        <v>0.5991660857705492</v>
+        <v>0.6948531717261607</v>
       </c>
       <c r="M5">
-        <v>0.6847664998564391</v>
+        <v>0.7847441147812565</v>
       </c>
       <c r="N5">
-        <v>0.7158868603322395</v>
+        <v>0.8010190498455746</v>
       </c>
       <c r="O5">
-        <v>0.7158868603322395</v>
+        <v>0.8010190498455746</v>
       </c>
       <c r="P5">
-        <v>0.7158868603322395</v>
+        <v>0.8010190498455746</v>
       </c>
       <c r="Q5">
-        <v>0.7558070384207746</v>
+        <v>0.8291847118965581</v>
       </c>
       <c r="R5">
-        <v>0.7558070384207746</v>
+        <v>0.8291847118965581</v>
       </c>
       <c r="S5">
-        <v>0.7845908426584068</v>
+        <v>0.8423023823970244</v>
       </c>
       <c r="T5">
-        <v>0.7845908426584068</v>
+        <v>0.8423023823970244</v>
       </c>
       <c r="U5">
-        <v>0.8036668209542355</v>
+        <v>0.8423023823970244</v>
       </c>
       <c r="V5">
-        <v>0.9024740448389027</v>
+        <v>0.9500389873275229</v>
       </c>
       <c r="W5">
-        <v>0.9024740448389027</v>
+        <v>0.9500389873275229</v>
       </c>
       <c r="X5">
-        <v>0.9024740448389027</v>
+        <v>0.9500389873275229</v>
       </c>
       <c r="Y5">
-        <v>0.9095430419474533</v>
+        <v>0.9500389873275229</v>
       </c>
       <c r="Z5">
-        <v>0.9505296540353841</v>
+        <v>0.9796456651011234</v>
       </c>
       <c r="AA5">
-        <v>0.9505296540353841</v>
+        <v>0.9796456651011234</v>
       </c>
       <c r="AB5">
-        <v>0.9846690035564961</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.9846690035564961</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD5">
-        <v>0.9846690035564961</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE5">
-        <v>0.9906945815720205</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF5">
-        <v>0.9906945815720205</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
         <v>0.9999999999999999</v>
@@ -2352,103 +2352,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01082574759788641</v>
+        <v>0.01587163875972309</v>
       </c>
       <c r="E6">
-        <v>0.07785646355836308</v>
+        <v>0.08124005210610372</v>
       </c>
       <c r="F6">
-        <v>0.207178916556356</v>
+        <v>0.2014655387074081</v>
       </c>
       <c r="G6">
-        <v>0.207178916556356</v>
+        <v>0.2040384943588808</v>
       </c>
       <c r="H6">
-        <v>0.207178916556356</v>
+        <v>0.2081055398254225</v>
       </c>
       <c r="I6">
-        <v>0.3195006689631812</v>
+        <v>0.3133593990156462</v>
       </c>
       <c r="J6">
-        <v>0.3195006689631812</v>
+        <v>0.3133593990156462</v>
       </c>
       <c r="K6">
-        <v>0.3455778648314728</v>
+        <v>0.3426621902010821</v>
       </c>
       <c r="L6">
-        <v>0.4878370681139291</v>
+        <v>0.4742803958336129</v>
       </c>
       <c r="M6">
-        <v>0.6673831146021693</v>
+        <v>0.6387351731602777</v>
       </c>
       <c r="N6">
-        <v>0.6673831146021693</v>
+        <v>0.6387351731602777</v>
       </c>
       <c r="O6">
-        <v>0.6673831146021693</v>
+        <v>0.6387351731602777</v>
       </c>
       <c r="P6">
-        <v>0.6673831146021693</v>
+        <v>0.6387351731602777</v>
       </c>
       <c r="Q6">
-        <v>0.7187795078314551</v>
+        <v>0.6903352565780914</v>
       </c>
       <c r="R6">
-        <v>0.7187795078314551</v>
+        <v>0.6903352565780914</v>
       </c>
       <c r="S6">
-        <v>0.7192094591217717</v>
+        <v>0.6970518615129564</v>
       </c>
       <c r="T6">
-        <v>0.7192094591217717</v>
+        <v>0.6970518615129564</v>
       </c>
       <c r="U6">
-        <v>0.8407202950343853</v>
+        <v>0.8103980657074468</v>
       </c>
       <c r="V6">
-        <v>0.9112056805060829</v>
+        <v>0.8788088257190755</v>
       </c>
       <c r="W6">
-        <v>0.912746192680962</v>
+        <v>0.8865034435124006</v>
       </c>
       <c r="X6">
-        <v>0.912746192680962</v>
+        <v>0.8865034435124006</v>
       </c>
       <c r="Y6">
-        <v>0.912746192680962</v>
+        <v>0.8865034435124006</v>
       </c>
       <c r="Z6">
-        <v>0.9258844058019967</v>
+        <v>0.9044115496534464</v>
       </c>
       <c r="AA6">
-        <v>0.9258844058019967</v>
+        <v>0.9093783971269493</v>
       </c>
       <c r="AB6">
-        <v>0.9700364856328484</v>
+        <v>0.9545987928096115</v>
       </c>
       <c r="AC6">
-        <v>0.9910087624441997</v>
+        <v>0.9794059489078708</v>
       </c>
       <c r="AD6">
-        <v>0.9910087624441997</v>
+        <v>0.9794059489078708</v>
       </c>
       <c r="AE6">
-        <v>0.9910087624441997</v>
+        <v>0.9794059489078708</v>
       </c>
       <c r="AF6">
-        <v>0.9915078710066494</v>
+        <v>0.986183457033495</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2462,94 +2462,94 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03217797869056187</v>
+        <v>0.03474315651434916</v>
       </c>
       <c r="E7">
-        <v>0.1209586657221997</v>
+        <v>0.1183077431917082</v>
       </c>
       <c r="F7">
-        <v>0.4510644326181233</v>
+        <v>0.4100220081880295</v>
       </c>
       <c r="G7">
-        <v>0.4775335557049895</v>
+        <v>0.4398411159539148</v>
       </c>
       <c r="H7">
-        <v>0.4820557524721429</v>
+        <v>0.4507303816324911</v>
       </c>
       <c r="I7">
-        <v>0.4820557524721429</v>
+        <v>0.4507303816324911</v>
       </c>
       <c r="J7">
-        <v>0.4820557524721429</v>
+        <v>0.4574534974388739</v>
       </c>
       <c r="K7">
-        <v>0.4895749481242154</v>
+        <v>0.4709277590663545</v>
       </c>
       <c r="L7">
-        <v>0.6249421996060954</v>
+        <v>0.5946745696955581</v>
       </c>
       <c r="M7">
-        <v>0.6862721727386323</v>
+        <v>0.6545621424838632</v>
       </c>
       <c r="N7">
-        <v>0.6862721727386323</v>
+        <v>0.6545621424838632</v>
       </c>
       <c r="O7">
-        <v>0.726259221903848</v>
+        <v>0.6960408422255612</v>
       </c>
       <c r="P7">
-        <v>0.726259221903848</v>
+        <v>0.6960408422255612</v>
       </c>
       <c r="Q7">
-        <v>0.726259221903848</v>
+        <v>0.6960408422255612</v>
       </c>
       <c r="R7">
-        <v>0.7294697183321572</v>
+        <v>0.705798729417762</v>
       </c>
       <c r="S7">
-        <v>0.7294697183321572</v>
+        <v>0.705798729417762</v>
       </c>
       <c r="T7">
-        <v>0.7388690670642712</v>
+        <v>0.7208946760314079</v>
       </c>
       <c r="U7">
-        <v>0.7929419586632953</v>
+        <v>0.7745228116009014</v>
       </c>
       <c r="V7">
-        <v>0.8994605958052427</v>
+        <v>0.8733868798388802</v>
       </c>
       <c r="W7">
-        <v>0.8994605958052427</v>
+        <v>0.8733868798388802</v>
       </c>
       <c r="X7">
-        <v>0.8994605958052427</v>
+        <v>0.8733868798388802</v>
       </c>
       <c r="Y7">
-        <v>0.8994605958052427</v>
+        <v>0.8733868798388802</v>
       </c>
       <c r="Z7">
-        <v>0.9180299060680657</v>
+        <v>0.8963921765453045</v>
       </c>
       <c r="AA7">
-        <v>0.9180299060680657</v>
+        <v>0.9010943961127063</v>
       </c>
       <c r="AB7">
-        <v>0.9180299060680657</v>
+        <v>0.901343510895065</v>
       </c>
       <c r="AC7">
-        <v>0.9288188283346339</v>
+        <v>0.9176380038196035</v>
       </c>
       <c r="AD7">
-        <v>0.9288188283346339</v>
+        <v>0.9176380038196035</v>
       </c>
       <c r="AE7">
-        <v>0.9288188283346339</v>
+        <v>0.9176380038196035</v>
       </c>
       <c r="AF7">
-        <v>0.9305906015507377</v>
+        <v>0.9261549517195476</v>
       </c>
       <c r="AG7">
-        <v>0.9734207208473235</v>
+        <v>0.970085879524801</v>
       </c>
       <c r="AH7">
         <v>1</v>
@@ -2575,97 +2575,97 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2359092651043313</v>
+        <v>0.2119823246241515</v>
       </c>
       <c r="F8">
-        <v>0.3797072180181737</v>
+        <v>0.3442158634813104</v>
       </c>
       <c r="G8">
-        <v>0.4053221540454665</v>
+        <v>0.3741280709965467</v>
       </c>
       <c r="H8">
-        <v>0.4053221540454665</v>
+        <v>0.3741280709965467</v>
       </c>
       <c r="I8">
-        <v>0.4349661037147697</v>
+        <v>0.4075285465447527</v>
       </c>
       <c r="J8">
-        <v>0.4349661037147697</v>
+        <v>0.4075285465447527</v>
       </c>
       <c r="K8">
-        <v>0.4566663081456558</v>
+        <v>0.434051429947751</v>
       </c>
       <c r="L8">
-        <v>0.5378463331382417</v>
+        <v>0.5120711746442304</v>
       </c>
       <c r="M8">
-        <v>0.7397032429189392</v>
+        <v>0.6945714093384286</v>
       </c>
       <c r="N8">
-        <v>0.7397032429189392</v>
+        <v>0.6980289340817425</v>
       </c>
       <c r="O8">
-        <v>0.7563147280315183</v>
+        <v>0.7201460699484905</v>
       </c>
       <c r="P8">
-        <v>0.7563147280315183</v>
+        <v>0.7222242071086834</v>
       </c>
       <c r="Q8">
-        <v>0.7623525043927323</v>
+        <v>0.735186762349858</v>
       </c>
       <c r="R8">
-        <v>0.7623525043927323</v>
+        <v>0.735186762349858</v>
       </c>
       <c r="S8">
-        <v>0.7623525043927323</v>
+        <v>0.735186762349858</v>
       </c>
       <c r="T8">
-        <v>0.7623525043927323</v>
+        <v>0.735186762349858</v>
       </c>
       <c r="U8">
-        <v>0.7693861443728034</v>
+        <v>0.749011523464608</v>
       </c>
       <c r="V8">
-        <v>0.9052736563560392</v>
+        <v>0.8743963046166028</v>
       </c>
       <c r="W8">
-        <v>0.9052736563560392</v>
+        <v>0.8743963046166028</v>
       </c>
       <c r="X8">
-        <v>0.9052736563560392</v>
+        <v>0.8743963046166028</v>
       </c>
       <c r="Y8">
-        <v>0.9052736563560392</v>
+        <v>0.8743963046166028</v>
       </c>
       <c r="Z8">
-        <v>0.9082069479439444</v>
+        <v>0.8846710369919877</v>
       </c>
       <c r="AA8">
-        <v>0.9082069479439444</v>
+        <v>0.8896044429482129</v>
       </c>
       <c r="AB8">
-        <v>0.9082069479439444</v>
+        <v>0.8896044429482129</v>
       </c>
       <c r="AC8">
-        <v>0.9342139462669576</v>
+        <v>0.9198560929410905</v>
       </c>
       <c r="AD8">
-        <v>0.9342139462669576</v>
+        <v>0.9252421700239418</v>
       </c>
       <c r="AE8">
-        <v>0.9342139462669576</v>
+        <v>0.9252421700239418</v>
       </c>
       <c r="AF8">
-        <v>0.9342139462669576</v>
+        <v>0.9270269313236138</v>
       </c>
       <c r="AG8">
-        <v>0.9723133716071928</v>
+        <v>0.9677480486236675</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9994539006620743</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9994539006620743</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2682,97 +2682,97 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2846674295766609</v>
+        <v>0.2508505950820307</v>
       </c>
       <c r="E9">
-        <v>0.427886232577417</v>
+        <v>0.3812140945008838</v>
       </c>
       <c r="F9">
-        <v>0.5174344442858383</v>
+        <v>0.4658605458021388</v>
       </c>
       <c r="G9">
-        <v>0.5193690478198913</v>
+        <v>0.4758770099126981</v>
       </c>
       <c r="H9">
-        <v>0.5395283483826471</v>
+        <v>0.5014174198365552</v>
       </c>
       <c r="I9">
-        <v>0.5395283483826471</v>
+        <v>0.5014174198365552</v>
       </c>
       <c r="J9">
-        <v>0.5499032889884484</v>
+        <v>0.5186234320170456</v>
       </c>
       <c r="K9">
-        <v>0.6397068628439578</v>
+        <v>0.6034874028813374</v>
       </c>
       <c r="L9">
-        <v>0.7819060234956878</v>
+        <v>0.7329823626174571</v>
       </c>
       <c r="M9">
-        <v>0.7819060234956878</v>
+        <v>0.7329823626174571</v>
       </c>
       <c r="N9">
-        <v>0.7973977140988979</v>
+        <v>0.7545468642463518</v>
       </c>
       <c r="O9">
-        <v>0.7973977140988979</v>
+        <v>0.7558564186379817</v>
       </c>
       <c r="P9">
-        <v>0.7973977140988979</v>
+        <v>0.7558564186379817</v>
       </c>
       <c r="Q9">
-        <v>0.7973977140988979</v>
+        <v>0.7558564186379817</v>
       </c>
       <c r="R9">
-        <v>0.7973977140988979</v>
+        <v>0.7558564186379817</v>
       </c>
       <c r="S9">
-        <v>0.7973977140988979</v>
+        <v>0.7582943724292633</v>
       </c>
       <c r="T9">
-        <v>0.807032714185163</v>
+        <v>0.7748700972303667</v>
       </c>
       <c r="U9">
-        <v>0.9027131205560242</v>
+        <v>0.86474000204124</v>
       </c>
       <c r="V9">
-        <v>0.9027131205560242</v>
+        <v>0.8701107828864575</v>
       </c>
       <c r="W9">
-        <v>0.9027131205560242</v>
+        <v>0.8701107828864575</v>
       </c>
       <c r="X9">
-        <v>0.9027131205560242</v>
+        <v>0.8701107828864575</v>
       </c>
       <c r="Y9">
-        <v>0.9027131205560242</v>
+        <v>0.875078325731482</v>
       </c>
       <c r="Z9">
-        <v>0.9054460934144218</v>
+        <v>0.8857748473546906</v>
       </c>
       <c r="AA9">
-        <v>0.9054460934144218</v>
+        <v>0.8860239988354699</v>
       </c>
       <c r="AB9">
-        <v>0.9369332603609535</v>
+        <v>0.9212135778865315</v>
       </c>
       <c r="AC9">
-        <v>0.9369332603609535</v>
+        <v>0.9214115210511142</v>
       </c>
       <c r="AD9">
-        <v>0.9369332603609535</v>
+        <v>0.9214115210511142</v>
       </c>
       <c r="AE9">
-        <v>0.9369332603609535</v>
+        <v>0.923606932138197</v>
       </c>
       <c r="AF9">
-        <v>0.976613362847239</v>
+        <v>0.9657753206131228</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9940648022096453</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9940648022096453</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -2792,97 +2792,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1607611535872145</v>
+        <v>0.1433680480389829</v>
       </c>
       <c r="E10">
-        <v>0.1607611535872145</v>
+        <v>0.1433680480389829</v>
       </c>
       <c r="F10">
-        <v>0.351499064814446</v>
+        <v>0.3117551837902</v>
       </c>
       <c r="G10">
-        <v>0.3596395462793545</v>
+        <v>0.3277435455941791</v>
       </c>
       <c r="H10">
-        <v>0.4000483632409966</v>
+        <v>0.3706635831255842</v>
       </c>
       <c r="I10">
-        <v>0.4000483632409966</v>
+        <v>0.3743628995660894</v>
       </c>
       <c r="J10">
-        <v>0.4019115375063111</v>
+        <v>0.3851121190549028</v>
       </c>
       <c r="K10">
-        <v>0.4019115375063111</v>
+        <v>0.3901572144250648</v>
       </c>
       <c r="L10">
-        <v>0.7090763340829862</v>
+        <v>0.6557161154352252</v>
       </c>
       <c r="M10">
-        <v>0.7111590714703462</v>
+        <v>0.6666485858638098</v>
       </c>
       <c r="N10">
-        <v>0.7111590714703462</v>
+        <v>0.6675796020841549</v>
       </c>
       <c r="O10">
-        <v>0.7370719866956035</v>
+        <v>0.698401125114232</v>
       </c>
       <c r="P10">
-        <v>0.7370719866956035</v>
+        <v>0.7045199964353772</v>
       </c>
       <c r="Q10">
-        <v>0.7370719866956035</v>
+        <v>0.7045199964353772</v>
       </c>
       <c r="R10">
-        <v>0.7370719866956035</v>
+        <v>0.7045199964353772</v>
       </c>
       <c r="S10">
-        <v>0.7370719866956035</v>
+        <v>0.7052442498556986</v>
       </c>
       <c r="T10">
-        <v>0.7370719866956035</v>
+        <v>0.7052442498556986</v>
       </c>
       <c r="U10">
-        <v>0.8336189685586914</v>
+        <v>0.7950181095562564</v>
       </c>
       <c r="V10">
-        <v>0.8854997340559829</v>
+        <v>0.8475128212432314</v>
       </c>
       <c r="W10">
-        <v>0.8854997340559829</v>
+        <v>0.8481904336795082</v>
       </c>
       <c r="X10">
-        <v>0.8854997340559829</v>
+        <v>0.8481904336795082</v>
       </c>
       <c r="Y10">
-        <v>0.8854997340559829</v>
+        <v>0.8481904336795082</v>
       </c>
       <c r="Z10">
-        <v>0.8936564789866764</v>
+        <v>0.8641923692355877</v>
       </c>
       <c r="AA10">
-        <v>0.8936564789866764</v>
+        <v>0.8641923692355877</v>
       </c>
       <c r="AB10">
-        <v>0.9146079054822187</v>
+        <v>0.890872953368848</v>
       </c>
       <c r="AC10">
-        <v>0.9248383531445841</v>
+        <v>0.9086056348299997</v>
       </c>
       <c r="AD10">
-        <v>0.9248383531445841</v>
+        <v>0.9086056348299997</v>
       </c>
       <c r="AE10">
-        <v>0.9248383531445841</v>
+        <v>0.9096642335710446</v>
       </c>
       <c r="AF10">
-        <v>0.950222584331168</v>
+        <v>0.9400445083348995</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9907837301693799</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9946385324159459</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -2902,97 +2902,97 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2028387354352437</v>
+        <v>0.1789080923896882</v>
       </c>
       <c r="E11">
-        <v>0.2028387354352437</v>
+        <v>0.1801151618734335</v>
       </c>
       <c r="F11">
-        <v>0.3989463641891078</v>
+        <v>0.3533935911651157</v>
       </c>
       <c r="G11">
-        <v>0.4182886271203034</v>
+        <v>0.378831627475026</v>
       </c>
       <c r="H11">
-        <v>0.4314928350510557</v>
+        <v>0.3991360084493112</v>
       </c>
       <c r="I11">
-        <v>0.4314928350510557</v>
+        <v>0.3991360084493112</v>
       </c>
       <c r="J11">
-        <v>0.4490216118717923</v>
+        <v>0.4230573081632856</v>
       </c>
       <c r="K11">
-        <v>0.4557701196063466</v>
+        <v>0.43796236642785</v>
       </c>
       <c r="L11">
-        <v>0.7457021265182742</v>
+        <v>0.6897122365111291</v>
       </c>
       <c r="M11">
-        <v>0.7457021265182742</v>
+        <v>0.6912993482920411</v>
       </c>
       <c r="N11">
-        <v>0.7457021265182742</v>
+        <v>0.6921892428105836</v>
       </c>
       <c r="O11">
-        <v>0.7529197697845592</v>
+        <v>0.7074866696879133</v>
       </c>
       <c r="P11">
-        <v>0.7529197697845592</v>
+        <v>0.7103328619036875</v>
       </c>
       <c r="Q11">
-        <v>0.7529197697845592</v>
+        <v>0.7103328619036875</v>
       </c>
       <c r="R11">
-        <v>0.7529197697845592</v>
+        <v>0.7103328619036875</v>
       </c>
       <c r="S11">
-        <v>0.7529197697845592</v>
+        <v>0.7154680763857907</v>
       </c>
       <c r="T11">
-        <v>0.7529197697845592</v>
+        <v>0.7154680763857907</v>
       </c>
       <c r="U11">
-        <v>0.8628662402149399</v>
+        <v>0.8166843149478287</v>
       </c>
       <c r="V11">
-        <v>0.8975120998810298</v>
+        <v>0.8549217463473351</v>
       </c>
       <c r="W11">
-        <v>0.8975120998810298</v>
+        <v>0.8573742132458602</v>
       </c>
       <c r="X11">
-        <v>0.8975120998810298</v>
+        <v>0.8573742132458602</v>
       </c>
       <c r="Y11">
-        <v>0.8975120998810298</v>
+        <v>0.8573742132458602</v>
       </c>
       <c r="Z11">
-        <v>0.905219364704954</v>
+        <v>0.8730811425342354</v>
       </c>
       <c r="AA11">
-        <v>0.905219364704954</v>
+        <v>0.8730811425342354</v>
       </c>
       <c r="AB11">
-        <v>0.9290012593972961</v>
+        <v>0.9022323321601675</v>
       </c>
       <c r="AC11">
-        <v>0.9453625758166553</v>
+        <v>0.9251772086719664</v>
       </c>
       <c r="AD11">
-        <v>0.9453625758166553</v>
+        <v>0.9251772086719664</v>
       </c>
       <c r="AE11">
-        <v>0.9453625758166553</v>
+        <v>0.9262334279889763</v>
       </c>
       <c r="AF11">
-        <v>0.9630171005700296</v>
+        <v>0.9502598988924046</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9904519489215172</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9956523178154367</v>
       </c>
       <c r="AI11">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6046657968921113</v>
+        <v>0.5876281666812868</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6266807063552893</v>
+        <v>0.5629271692738267</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.612631470496136</v>
+        <v>0.5835453324416986</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5388000895109311</v>
+        <v>0.6507229202933464</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6673831146021693</v>
+        <v>0.6387351731602777</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6249421996060954</v>
+        <v>0.5946745696955581</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5378463331382417</v>
+        <v>0.5120711746442304</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -3353,16 +3353,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5174344442858383</v>
+        <v>0.5014174198365552</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>47</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7090763340829862</v>
+        <v>0.6557161154352252</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7457021265182742</v>
+        <v>0.6897122365111291</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7368853656296802</v>
+        <v>0.7127856406822769</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -3571,16 +3571,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7344532598907708</v>
+        <v>0.8361912209621337</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -3612,16 +3612,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.717061699026077</v>
+        <v>0.7538377265362578</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -3653,16 +3653,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7158868603322395</v>
+        <v>0.7847441147812565</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -3694,16 +3694,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7187795078314551</v>
+        <v>0.8103980657074468</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -3735,16 +3735,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.726259221903848</v>
+        <v>0.705798729417762</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>47</v>
@@ -3776,16 +3776,16 @@
         <v>2</v>
       </c>
       <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.7201460699484905</v>
+      </c>
+      <c r="G8">
         <v>12</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7397032429189392</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
       </c>
       <c r="H8">
         <v>47</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7819060234956878</v>
+        <v>0.7329823626174571</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -3858,16 +3858,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7090763340829862</v>
+        <v>0.7045199964353772</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>47</v>
@@ -3899,16 +3899,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7457021265182742</v>
+        <v>0.7074866696879133</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>47</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.914475961226074</v>
+        <v>0.8971738261809182</v>
       </c>
       <c r="G2">
         <v>19</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9137534711871637</v>
+        <v>0.8361912209621337</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9109875462019777</v>
+        <v>0.8766468811787853</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -4117,16 +4117,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8036668209542355</v>
+        <v>0.8010190498455746</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8407202950343853</v>
+        <v>0.8103980657074468</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8994605958052427</v>
+        <v>0.8733868798388802</v>
       </c>
       <c r="G7">
         <v>19</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9052736563560392</v>
+        <v>0.8743963046166028</v>
       </c>
       <c r="G8">
         <v>19</v>
@@ -4281,16 +4281,16 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.86474000204124</v>
+      </c>
+      <c r="G9">
         <v>19</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.807032714185163</v>
-      </c>
-      <c r="G9">
-        <v>18</v>
       </c>
       <c r="H9">
         <v>47</v>
@@ -4322,16 +4322,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.8475128212432314</v>
+      </c>
+      <c r="G10">
         <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8336189685586914</v>
-      </c>
-      <c r="G10">
-        <v>19</v>
       </c>
       <c r="H10">
         <v>47</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8628662402149399</v>
+        <v>0.8166843149478287</v>
       </c>
       <c r="G11">
         <v>19</v>
@@ -4458,16 +4458,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.914475961226074</v>
+        <v>0.9280132056887567</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -4499,16 +4499,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9137534711871637</v>
+        <v>0.9043353366160198</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -4540,16 +4540,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9109875462019777</v>
+        <v>0.9213464524569328</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9024740448389027</v>
+        <v>0.9500389873275229</v>
       </c>
       <c r="G5">
         <v>19</v>
@@ -4622,16 +4622,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9112056805060829</v>
+        <v>0.9044115496534464</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -4663,16 +4663,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9180299060680657</v>
+        <v>0.9010943961127063</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>47</v>
@@ -4704,16 +4704,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9052736563560392</v>
+        <v>0.9198560929410905</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>47</v>
@@ -4745,16 +4745,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9027131205560242</v>
+        <v>0.9212135778865315</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9">
         <v>47</v>
@@ -4786,16 +4786,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.9086056348299997</v>
+      </c>
+      <c r="G10">
         <v>27</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9146079054822187</v>
-      </c>
-      <c r="G10">
-        <v>26</v>
       </c>
       <c r="H10">
         <v>47</v>
@@ -4827,16 +4827,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.905219364704954</v>
+        <v>0.9022323321601675</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>47</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/47_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/47_225-80R17.xlsx
@@ -1025,7 +1025,7 @@
         <v>0.2769915263604423</v>
       </c>
       <c r="F5">
-        <v>0.1396817715162406</v>
+        <v>0.1396817715162405</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.02816566205098351</v>
+        <v>0.02816566205098352</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.02960667777360051</v>
+        <v>0.0296066777736005</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0.2769915263604423</v>
       </c>
       <c r="F5">
-        <v>0.4166732978766829</v>
+        <v>0.4166732978766828</v>
       </c>
       <c r="G5">
-        <v>0.4166732978766829</v>
+        <v>0.4166732978766828</v>
       </c>
       <c r="H5">
-        <v>0.4166732978766829</v>
+        <v>0.4166732978766828</v>
       </c>
       <c r="I5">
         <v>0.6507229202933464</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/47_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/47_225-80R17.xlsx
@@ -1025,7 +1025,7 @@
         <v>0.2769915263604423</v>
       </c>
       <c r="F5">
-        <v>0.1396817715162405</v>
+        <v>0.1396817715162406</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.02816566205098352</v>
+        <v>0.02816566205098351</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0296066777736005</v>
+        <v>0.02960667777360051</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0.2769915263604423</v>
       </c>
       <c r="F5">
-        <v>0.4166732978766828</v>
+        <v>0.4166732978766829</v>
       </c>
       <c r="G5">
-        <v>0.4166732978766828</v>
+        <v>0.4166732978766829</v>
       </c>
       <c r="H5">
-        <v>0.4166732978766828</v>
+        <v>0.4166732978766829</v>
       </c>
       <c r="I5">
         <v>0.6507229202933464</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/47_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/47_225-80R17.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Al</t>
   </si>
   <si>
     <t>225-80R17.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -689,61 +689,61 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01058546656398339</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1320567666917444</v>
+        <v>0.1654927223823996</v>
       </c>
       <c r="F2">
-        <v>0.125503502723725</v>
+        <v>0.1550796652416082</v>
       </c>
       <c r="G2">
-        <v>0.06275116909324868</v>
+        <v>0.0553669665007934</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.108469554800395</v>
+        <v>0.1280129281279332</v>
       </c>
       <c r="J2">
-        <v>0.007087904072467494</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01746813619930933</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1237056665364135</v>
+        <v>0.1522229252965034</v>
       </c>
       <c r="N2">
-        <v>0.1251574740009901</v>
+        <v>0.1545298297886526</v>
       </c>
       <c r="O2">
-        <v>0.007098322231797891</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.004854697164600988</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.006987460638068112</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.04332372503008762</v>
+        <v>0.02449699298584501</v>
       </c>
       <c r="V2">
-        <v>0.1221239804340868</v>
+        <v>0.1497096452206969</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -755,31 +755,31 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.03083937950783841</v>
+        <v>0.004659519030426995</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01959586490995239</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.008699204451625257</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.00673497262666549</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0344701726688167</v>
+        <v>0.01042880542514065</v>
       </c>
       <c r="AH2">
-        <v>0.002486579654183525</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -799,37 +799,37 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1896908849878233</v>
+        <v>0.2603539547508051</v>
       </c>
       <c r="E3">
-        <v>0.00182111045225064</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1941501138443676</v>
+        <v>0.2676231487004246</v>
       </c>
       <c r="G3">
-        <v>0.008135466590761279</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.005447780907999147</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02731849206972089</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.004702269881157305</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.00015328602974299</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1315077645100036</v>
+        <v>0.1655069753842639</v>
       </c>
       <c r="M3">
-        <v>0.09640222185991236</v>
+        <v>0.1082798165100032</v>
       </c>
       <c r="N3">
-        <v>0.01211475321056387</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.006708009295296055</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.006453880377123393</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -850,46 +850,46 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.1515851869454115</v>
+        <v>0.1982361046545031</v>
       </c>
       <c r="V3">
-        <v>0.02828071903373305</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0116848961897237</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0002856859369158111</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.01063785232864826</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.01725496216486532</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.01142893033306917</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02622738340635632</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01099359678232658</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002652753578110785</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.02668575343486555</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.01481322350676646</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.002863022342485066</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03329170425928037</v>
+        <v>0.007414615189126769</v>
       </c>
       <c r="E4">
-        <v>0.03087075956005013</v>
+        <v>0.003633617323575072</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.01209692730444689</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2490000067664582</v>
+        <v>0.3443048513108958</v>
       </c>
       <c r="I4">
-        <v>0.258285934551463</v>
+        <v>0.3588074845787825</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -933,16 +933,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.04458272282122641</v>
+        <v>0.02504877143242995</v>
       </c>
       <c r="M4">
-        <v>0.06142419517064002</v>
+        <v>0.05135154944554512</v>
       </c>
       <c r="N4">
-        <v>0.06428547610269279</v>
+        <v>0.0558202583343831</v>
       </c>
       <c r="O4">
-        <v>0.1228091546425275</v>
+        <v>0.1472217280638264</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -951,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.002870236128441033</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.01538591961950316</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.02644341553020322</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.02286461628011942</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.00240414388392867</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0001558430396089032</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03264021245467092</v>
+        <v>0.006397124321435336</v>
       </c>
       <c r="AC4">
-        <v>0.009529922984588662</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -996,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.003109953656554523</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.007948855243596177</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2769915263604423</v>
+        <v>0.2957682761688052</v>
       </c>
       <c r="F5">
-        <v>0.1396817715162406</v>
+        <v>0.1446032054980258</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2340496224166636</v>
+        <v>0.2484932959478843</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1043,13 +1043,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04413025143281425</v>
+        <v>0.03941000707959987</v>
       </c>
       <c r="M5">
-        <v>0.08989094305509585</v>
+        <v>0.08978820628966167</v>
       </c>
       <c r="N5">
-        <v>0.01627493506431812</v>
+        <v>0.008743934795235542</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.02816566205098351</v>
+        <v>0.02183450208454216</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.01311767050046627</v>
+        <v>0.005268084725715396</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.1077366049304985</v>
+        <v>0.1094345944259084</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1085,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.02960667777360051</v>
+        <v>0.0234209242858946</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.02035433489887647</v>
+        <v>0.01323496869872677</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01587163875972309</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06536841334638063</v>
+        <v>0.06037479492570968</v>
       </c>
       <c r="F6">
-        <v>0.1202254866013044</v>
+        <v>0.1505270526164697</v>
       </c>
       <c r="G6">
-        <v>0.0025729556514727</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.00406704546654178</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1052538591902236</v>
+        <v>0.1259226409640006</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.02930279118543588</v>
+        <v>0.001104457120379483</v>
       </c>
       <c r="L6">
-        <v>0.1316182056325308</v>
+        <v>0.1692498768752241</v>
       </c>
       <c r="M6">
-        <v>0.1644547773266648</v>
+        <v>0.2232135846963477</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1168,25 +1168,25 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.05160008341781362</v>
+        <v>0.03774788550377535</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.006716604934865061</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.1133462041944904</v>
+        <v>0.1392216219132204</v>
       </c>
       <c r="V6">
-        <v>0.06841076001162869</v>
+        <v>0.06537459539401939</v>
       </c>
       <c r="W6">
-        <v>0.007694617793325096</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1195,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01790810614104574</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.004966847473502925</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04522039568266217</v>
+        <v>0.02726348999085336</v>
       </c>
       <c r="AC6">
-        <v>0.02480715609825936</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1213,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.00677750812562421</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01381654296650485</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1239,40 +1239,40 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03474315651434916</v>
+        <v>0.01010831891713662</v>
       </c>
       <c r="E7">
-        <v>0.083564586677359</v>
+        <v>0.09534005301293154</v>
       </c>
       <c r="F7">
-        <v>0.2917142649963213</v>
+        <v>0.4587246973253117</v>
       </c>
       <c r="G7">
-        <v>0.02981910776588531</v>
+        <v>0.001511987097226475</v>
       </c>
       <c r="H7">
-        <v>0.01088926567857631</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.006723115806382782</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.01347426162748061</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1237468106292036</v>
+        <v>0.1654895880799346</v>
       </c>
       <c r="M7">
-        <v>0.05988757278830512</v>
+        <v>0.05400507070626264</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04147869974169797</v>
+        <v>0.02186713113192272</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1281,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.009757887192200838</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.01509594661364587</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.05362813556949358</v>
+        <v>0.04307743735259487</v>
       </c>
       <c r="V7">
-        <v>0.09886406823797882</v>
+        <v>0.1220496627032732</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.02300529670642421</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.004702219567401774</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0002491147823587622</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.01629449292453842</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.00851694789994412</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.04393092780525327</v>
+        <v>0.02614819478690651</v>
       </c>
       <c r="AH7">
-        <v>0.02991412047519932</v>
+        <v>0.001677858886498818</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1352,43 +1352,43 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2119823246241515</v>
+        <v>0.3025700686217221</v>
       </c>
       <c r="F8">
-        <v>0.1322335388571589</v>
+        <v>0.1705559510465196</v>
       </c>
       <c r="G8">
-        <v>0.02991220751523627</v>
+        <v>0.00117581395338988</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.03340047554820606</v>
+        <v>0.006950204394691024</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02652288340299825</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07801974469647939</v>
+        <v>0.08081181102366297</v>
       </c>
       <c r="M8">
-        <v>0.1825002346941983</v>
+        <v>0.2537661646005724</v>
       </c>
       <c r="N8">
-        <v>0.003457524743313845</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02211713586674805</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.002078137160192933</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.0129625552411746</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1400,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.01382476111475</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.1253847811519948</v>
+        <v>0.159218691221959</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1415,37 +1415,37 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.01027473237538491</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.004933405956225309</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.03025164999287756</v>
+        <v>0.001737718422810679</v>
       </c>
       <c r="AD8">
-        <v>0.005386077082851296</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.001784761299671937</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.04072111730005364</v>
+        <v>0.01906860910342253</v>
       </c>
       <c r="AH8">
-        <v>0.03170585203840683</v>
+        <v>0.004144967611249838</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.0005460993379257939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1459,40 +1459,40 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2508505950820307</v>
+        <v>0.3622962342306175</v>
       </c>
       <c r="E9">
-        <v>0.1303634994188532</v>
+        <v>0.1650067096690088</v>
       </c>
       <c r="F9">
-        <v>0.08464645130125491</v>
+        <v>0.09014811474781308</v>
       </c>
       <c r="G9">
-        <v>0.01001646411055936</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.02554040992385704</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01720601218049045</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.08486397086429179</v>
+        <v>0.09050428841884556</v>
       </c>
       <c r="L9">
-        <v>0.1294949597361197</v>
+        <v>0.1635845342889299</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.02156450162889465</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00130955439162994</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.002437953791281674</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.01657572480110342</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.08986990481087334</v>
+        <v>0.09870116894677183</v>
       </c>
       <c r="V9">
-        <v>0.005370780845217448</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1522,37 +1522,37 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.00496754284502457</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.01069652162320858</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.0002491514807792807</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.03518957905106158</v>
+        <v>0.0091658090590651</v>
       </c>
       <c r="AC9">
-        <v>0.0001979431645828135</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.002195411087082778</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.04216838847492577</v>
+        <v>0.02059314063894834</v>
       </c>
       <c r="AG9">
-        <v>0.02828948159652252</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.005935197790354629</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1569,43 +1569,43 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1433680480389829</v>
+        <v>0.1872923075179737</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.168387135751217</v>
+        <v>0.2285405561370452</v>
       </c>
       <c r="G10">
-        <v>0.01598836180397909</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.04292003753140518</v>
+        <v>0.02168656847731229</v>
       </c>
       <c r="I10">
-        <v>0.003699316440505213</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01074921948881342</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.005045095370162006</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2655589010101604</v>
+        <v>0.3887448440893586</v>
       </c>
       <c r="M10">
-        <v>0.01093247042858456</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.0009310162203451214</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03082152303007716</v>
+        <v>0.001740096415175869</v>
       </c>
       <c r="P10">
-        <v>0.006118871321145159</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1614,19 +1614,19 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.0007242534203213846</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.08977385970055783</v>
+        <v>0.09893311430727575</v>
       </c>
       <c r="V10">
-        <v>0.0524947116869749</v>
+        <v>0.03747205772288602</v>
       </c>
       <c r="W10">
-        <v>0.0006776124362768196</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1635,34 +1635,34 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.01600193555607953</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02668058413326023</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.01773268146115166</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.001058598741045013</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.03038027476385483</v>
+        <v>0.001012623119697831</v>
       </c>
       <c r="AG10">
-        <v>0.05073922183448042</v>
+        <v>0.03457783221327478</v>
       </c>
       <c r="AH10">
-        <v>0.003854802246566035</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.005361467584054055</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1679,43 +1679,43 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1789080923896882</v>
+        <v>0.2465642266984814</v>
       </c>
       <c r="E11">
-        <v>0.001207069483745379</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1732784292916821</v>
+        <v>0.2372538075690927</v>
       </c>
       <c r="G11">
-        <v>0.02543803630991031</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02030438097428521</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02392129971397434</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.01490505826456446</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2517498700832791</v>
+        <v>0.3670310234944208</v>
       </c>
       <c r="M11">
-        <v>0.001587111780911989</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.0008898945185424556</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.01529742687732975</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.002846192215774206</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1724,19 +1724,19 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005135214482103239</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.101216238562038</v>
+        <v>0.1180763030906142</v>
       </c>
       <c r="V11">
-        <v>0.03823743139950647</v>
+        <v>0.01392103114196041</v>
       </c>
       <c r="W11">
-        <v>0.002452466898525084</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1745,34 +1745,34 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.0157069292883753</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.02915118962593205</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.02294487651179886</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.001056219317009949</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.02402647090342819</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.04019205002911262</v>
+        <v>0.01715360800543034</v>
       </c>
       <c r="AH11">
-        <v>0.005200368893919476</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.004347682184563226</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,94 +1912,94 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01058546656398339</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1426422332557278</v>
+        <v>0.1654927223823996</v>
       </c>
       <c r="F2">
-        <v>0.2681457359794528</v>
+        <v>0.3205723876240077</v>
       </c>
       <c r="G2">
-        <v>0.3308969050727015</v>
+        <v>0.3759393541248012</v>
       </c>
       <c r="H2">
-        <v>0.3308969050727015</v>
+        <v>0.3759393541248012</v>
       </c>
       <c r="I2">
-        <v>0.4393664598730965</v>
+        <v>0.5039522822527344</v>
       </c>
       <c r="J2">
-        <v>0.446454363945564</v>
+        <v>0.5039522822527344</v>
       </c>
       <c r="K2">
-        <v>0.446454363945564</v>
+        <v>0.5039522822527344</v>
       </c>
       <c r="L2">
-        <v>0.4639225001448733</v>
+        <v>0.5039522822527344</v>
       </c>
       <c r="M2">
-        <v>0.5876281666812868</v>
+        <v>0.6561752075492377</v>
       </c>
       <c r="N2">
-        <v>0.7127856406822769</v>
+        <v>0.8107050373378903</v>
       </c>
       <c r="O2">
-        <v>0.7198839629140747</v>
+        <v>0.8107050373378903</v>
       </c>
       <c r="P2">
-        <v>0.7198839629140747</v>
+        <v>0.8107050373378903</v>
       </c>
       <c r="Q2">
-        <v>0.7247386600786757</v>
+        <v>0.8107050373378903</v>
       </c>
       <c r="R2">
-        <v>0.7247386600786757</v>
+        <v>0.8107050373378903</v>
       </c>
       <c r="S2">
-        <v>0.7317261207167438</v>
+        <v>0.8107050373378903</v>
       </c>
       <c r="T2">
-        <v>0.7317261207167438</v>
+        <v>0.8107050373378903</v>
       </c>
       <c r="U2">
-        <v>0.7750498457468314</v>
+        <v>0.8352020303237353</v>
       </c>
       <c r="V2">
-        <v>0.8971738261809182</v>
+        <v>0.9849116755444323</v>
       </c>
       <c r="W2">
-        <v>0.8971738261809182</v>
+        <v>0.9849116755444323</v>
       </c>
       <c r="X2">
-        <v>0.8971738261809182</v>
+        <v>0.9849116755444323</v>
       </c>
       <c r="Y2">
-        <v>0.8971738261809182</v>
+        <v>0.9849116755444323</v>
       </c>
       <c r="Z2">
-        <v>0.9280132056887567</v>
+        <v>0.9895711945748593</v>
       </c>
       <c r="AA2">
-        <v>0.9280132056887567</v>
+        <v>0.9895711945748593</v>
       </c>
       <c r="AB2">
-        <v>0.947609070598709</v>
+        <v>0.9895711945748593</v>
       </c>
       <c r="AC2">
-        <v>0.9563082750503343</v>
+        <v>0.9895711945748593</v>
       </c>
       <c r="AD2">
-        <v>0.9563082750503343</v>
+        <v>0.9895711945748593</v>
       </c>
       <c r="AE2">
-        <v>0.9630432476769998</v>
+        <v>0.9895711945748593</v>
       </c>
       <c r="AF2">
-        <v>0.9630432476769998</v>
+        <v>0.9895711945748593</v>
       </c>
       <c r="AG2">
-        <v>0.9975134203458165</v>
+        <v>1</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -2022,103 +2022,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1896908849878233</v>
+        <v>0.2603539547508051</v>
       </c>
       <c r="E3">
-        <v>0.1915119954400739</v>
+        <v>0.2603539547508051</v>
       </c>
       <c r="F3">
-        <v>0.3856621092844416</v>
+        <v>0.5279771034512297</v>
       </c>
       <c r="G3">
-        <v>0.3937975758752028</v>
+        <v>0.5279771034512297</v>
       </c>
       <c r="H3">
-        <v>0.3992453567832019</v>
+        <v>0.5279771034512297</v>
       </c>
       <c r="I3">
-        <v>0.4265638488529228</v>
+        <v>0.5279771034512297</v>
       </c>
       <c r="J3">
-        <v>0.4312661187340801</v>
+        <v>0.5279771034512297</v>
       </c>
       <c r="K3">
-        <v>0.4314194047638231</v>
+        <v>0.5279771034512297</v>
       </c>
       <c r="L3">
-        <v>0.5629271692738267</v>
+        <v>0.6934840788354936</v>
       </c>
       <c r="M3">
-        <v>0.659329391133739</v>
+        <v>0.8017638953454967</v>
       </c>
       <c r="N3">
-        <v>0.6714441443443029</v>
+        <v>0.8017638953454967</v>
       </c>
       <c r="O3">
-        <v>0.6714441443443029</v>
+        <v>0.8017638953454967</v>
       </c>
       <c r="P3">
-        <v>0.6714441443443029</v>
+        <v>0.8017638953454967</v>
       </c>
       <c r="Q3">
-        <v>0.6781521536395989</v>
+        <v>0.8017638953454967</v>
       </c>
       <c r="R3">
-        <v>0.6846060340167223</v>
+        <v>0.8017638953454967</v>
       </c>
       <c r="S3">
-        <v>0.6846060340167223</v>
+        <v>0.8017638953454967</v>
       </c>
       <c r="T3">
-        <v>0.6846060340167223</v>
+        <v>0.8017638953454967</v>
       </c>
       <c r="U3">
-        <v>0.8361912209621337</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V3">
-        <v>0.8644719399958668</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W3">
-        <v>0.8761568361855905</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X3">
-        <v>0.8764425221225063</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y3">
-        <v>0.8870803744511545</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.9043353366160198</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.915764266949089</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.9419916503554453</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.9529852471377719</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD3">
-        <v>0.9556380007158827</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE3">
-        <v>0.9556380007158827</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.9823237541507482</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.9971369776575147</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,97 +2132,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03329170425928037</v>
+        <v>0.007414615189126769</v>
       </c>
       <c r="E4">
-        <v>0.0641624638193305</v>
+        <v>0.01104823251270184</v>
       </c>
       <c r="F4">
-        <v>0.0641624638193305</v>
+        <v>0.01104823251270184</v>
       </c>
       <c r="G4">
-        <v>0.07625939112377739</v>
+        <v>0.01104823251270184</v>
       </c>
       <c r="H4">
-        <v>0.3252593978902356</v>
+        <v>0.3553530838235976</v>
       </c>
       <c r="I4">
-        <v>0.5835453324416986</v>
+        <v>0.7141605684023802</v>
       </c>
       <c r="J4">
-        <v>0.5835453324416986</v>
+        <v>0.7141605684023802</v>
       </c>
       <c r="K4">
-        <v>0.5835453324416986</v>
+        <v>0.7141605684023802</v>
       </c>
       <c r="L4">
-        <v>0.628128055262925</v>
+        <v>0.7392093398348101</v>
       </c>
       <c r="M4">
-        <v>0.6895522504335651</v>
+        <v>0.7905608892803552</v>
       </c>
       <c r="N4">
-        <v>0.7538377265362578</v>
+        <v>0.8463811476147383</v>
       </c>
       <c r="O4">
-        <v>0.8766468811787853</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="P4">
-        <v>0.8766468811787853</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="Q4">
-        <v>0.8766468811787853</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="R4">
-        <v>0.8795171173072264</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="S4">
-        <v>0.8949030369267296</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="T4">
-        <v>0.8949030369267296</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="U4">
-        <v>0.9213464524569328</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="V4">
-        <v>0.9442110687370522</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="W4">
-        <v>0.9442110687370522</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="X4">
-        <v>0.9442110687370522</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="Y4">
-        <v>0.9442110687370522</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="Z4">
-        <v>0.9466152126209808</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="AA4">
-        <v>0.9467710556605897</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="AB4">
-        <v>0.9794112681152607</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9889411910998493</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9889411910998493</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9889411910998493</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9889411910998493</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9920511447564039</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9920511447564039</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -2245,100 +2245,100 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2769915263604423</v>
+        <v>0.2957682761688052</v>
       </c>
       <c r="F5">
-        <v>0.4166732978766829</v>
+        <v>0.440371481666831</v>
       </c>
       <c r="G5">
-        <v>0.4166732978766829</v>
+        <v>0.440371481666831</v>
       </c>
       <c r="H5">
-        <v>0.4166732978766829</v>
+        <v>0.440371481666831</v>
       </c>
       <c r="I5">
-        <v>0.6507229202933464</v>
+        <v>0.6888647776147154</v>
       </c>
       <c r="J5">
-        <v>0.6507229202933464</v>
+        <v>0.6888647776147154</v>
       </c>
       <c r="K5">
-        <v>0.6507229202933464</v>
+        <v>0.6888647776147154</v>
       </c>
       <c r="L5">
-        <v>0.6948531717261607</v>
+        <v>0.7282747846943153</v>
       </c>
       <c r="M5">
-        <v>0.7847441147812565</v>
+        <v>0.8180629909839769</v>
       </c>
       <c r="N5">
-        <v>0.8010190498455746</v>
+        <v>0.8268069257792124</v>
       </c>
       <c r="O5">
-        <v>0.8010190498455746</v>
+        <v>0.8268069257792124</v>
       </c>
       <c r="P5">
-        <v>0.8010190498455746</v>
+        <v>0.8268069257792124</v>
       </c>
       <c r="Q5">
-        <v>0.8291847118965581</v>
+        <v>0.8486414278637546</v>
       </c>
       <c r="R5">
-        <v>0.8291847118965581</v>
+        <v>0.8486414278637546</v>
       </c>
       <c r="S5">
-        <v>0.8423023823970244</v>
+        <v>0.85390951258947</v>
       </c>
       <c r="T5">
-        <v>0.8423023823970244</v>
+        <v>0.85390951258947</v>
       </c>
       <c r="U5">
-        <v>0.8423023823970244</v>
+        <v>0.85390951258947</v>
       </c>
       <c r="V5">
-        <v>0.9500389873275229</v>
+        <v>0.9633441070153784</v>
       </c>
       <c r="W5">
-        <v>0.9500389873275229</v>
+        <v>0.9633441070153784</v>
       </c>
       <c r="X5">
-        <v>0.9500389873275229</v>
+        <v>0.9633441070153784</v>
       </c>
       <c r="Y5">
-        <v>0.9500389873275229</v>
+        <v>0.9633441070153784</v>
       </c>
       <c r="Z5">
-        <v>0.9796456651011234</v>
+        <v>0.986765031301273</v>
       </c>
       <c r="AA5">
-        <v>0.9796456651011234</v>
+        <v>0.986765031301273</v>
       </c>
       <c r="AB5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2352,91 +2352,91 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01587163875972309</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08124005210610372</v>
+        <v>0.06037479492570968</v>
       </c>
       <c r="F6">
-        <v>0.2014655387074081</v>
+        <v>0.2109018475421794</v>
       </c>
       <c r="G6">
-        <v>0.2040384943588808</v>
+        <v>0.2109018475421794</v>
       </c>
       <c r="H6">
-        <v>0.2081055398254225</v>
+        <v>0.2109018475421794</v>
       </c>
       <c r="I6">
-        <v>0.3133593990156462</v>
+        <v>0.33682448850618</v>
       </c>
       <c r="J6">
-        <v>0.3133593990156462</v>
+        <v>0.33682448850618</v>
       </c>
       <c r="K6">
-        <v>0.3426621902010821</v>
+        <v>0.3379289456265595</v>
       </c>
       <c r="L6">
-        <v>0.4742803958336129</v>
+        <v>0.5071788225017835</v>
       </c>
       <c r="M6">
-        <v>0.6387351731602777</v>
+        <v>0.7303924071981313</v>
       </c>
       <c r="N6">
-        <v>0.6387351731602777</v>
+        <v>0.7303924071981313</v>
       </c>
       <c r="O6">
-        <v>0.6387351731602777</v>
+        <v>0.7303924071981313</v>
       </c>
       <c r="P6">
-        <v>0.6387351731602777</v>
+        <v>0.7303924071981313</v>
       </c>
       <c r="Q6">
-        <v>0.6903352565780914</v>
+        <v>0.7681402927019066</v>
       </c>
       <c r="R6">
-        <v>0.6903352565780914</v>
+        <v>0.7681402927019066</v>
       </c>
       <c r="S6">
-        <v>0.6970518615129564</v>
+        <v>0.7681402927019066</v>
       </c>
       <c r="T6">
-        <v>0.6970518615129564</v>
+        <v>0.7681402927019066</v>
       </c>
       <c r="U6">
-        <v>0.8103980657074468</v>
+        <v>0.9073619146151271</v>
       </c>
       <c r="V6">
-        <v>0.8788088257190755</v>
+        <v>0.9727365100091464</v>
       </c>
       <c r="W6">
-        <v>0.8865034435124006</v>
+        <v>0.9727365100091464</v>
       </c>
       <c r="X6">
-        <v>0.8865034435124006</v>
+        <v>0.9727365100091464</v>
       </c>
       <c r="Y6">
-        <v>0.8865034435124006</v>
+        <v>0.9727365100091464</v>
       </c>
       <c r="Z6">
-        <v>0.9044115496534464</v>
+        <v>0.9727365100091464</v>
       </c>
       <c r="AA6">
-        <v>0.9093783971269493</v>
+        <v>0.9727365100091464</v>
       </c>
       <c r="AB6">
-        <v>0.9545987928096115</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC6">
-        <v>0.9794059489078708</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD6">
-        <v>0.9794059489078708</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE6">
-        <v>0.9794059489078708</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF6">
-        <v>0.986183457033495</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG6">
         <v>0.9999999999999998</v>
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03474315651434916</v>
+        <v>0.01010831891713662</v>
       </c>
       <c r="E7">
-        <v>0.1183077431917082</v>
+        <v>0.1054483719300682</v>
       </c>
       <c r="F7">
-        <v>0.4100220081880295</v>
+        <v>0.5641730692553799</v>
       </c>
       <c r="G7">
-        <v>0.4398411159539148</v>
+        <v>0.5656850563526064</v>
       </c>
       <c r="H7">
-        <v>0.4507303816324911</v>
+        <v>0.5656850563526064</v>
       </c>
       <c r="I7">
-        <v>0.4507303816324911</v>
+        <v>0.5656850563526064</v>
       </c>
       <c r="J7">
-        <v>0.4574534974388739</v>
+        <v>0.5656850563526064</v>
       </c>
       <c r="K7">
-        <v>0.4709277590663545</v>
+        <v>0.5656850563526064</v>
       </c>
       <c r="L7">
-        <v>0.5946745696955581</v>
+        <v>0.731174644432541</v>
       </c>
       <c r="M7">
-        <v>0.6545621424838632</v>
+        <v>0.7851797151388036</v>
       </c>
       <c r="N7">
-        <v>0.6545621424838632</v>
+        <v>0.7851797151388036</v>
       </c>
       <c r="O7">
-        <v>0.6960408422255612</v>
+        <v>0.8070468462707263</v>
       </c>
       <c r="P7">
-        <v>0.6960408422255612</v>
+        <v>0.8070468462707263</v>
       </c>
       <c r="Q7">
-        <v>0.6960408422255612</v>
+        <v>0.8070468462707263</v>
       </c>
       <c r="R7">
-        <v>0.705798729417762</v>
+        <v>0.8070468462707263</v>
       </c>
       <c r="S7">
-        <v>0.705798729417762</v>
+        <v>0.8070468462707263</v>
       </c>
       <c r="T7">
-        <v>0.7208946760314079</v>
+        <v>0.8070468462707263</v>
       </c>
       <c r="U7">
-        <v>0.7745228116009014</v>
+        <v>0.8501242836233212</v>
       </c>
       <c r="V7">
-        <v>0.8733868798388802</v>
+        <v>0.9721739463265944</v>
       </c>
       <c r="W7">
-        <v>0.8733868798388802</v>
+        <v>0.9721739463265944</v>
       </c>
       <c r="X7">
-        <v>0.8733868798388802</v>
+        <v>0.9721739463265944</v>
       </c>
       <c r="Y7">
-        <v>0.8733868798388802</v>
+        <v>0.9721739463265944</v>
       </c>
       <c r="Z7">
-        <v>0.8963921765453045</v>
+        <v>0.9721739463265944</v>
       </c>
       <c r="AA7">
-        <v>0.9010943961127063</v>
+        <v>0.9721739463265944</v>
       </c>
       <c r="AB7">
-        <v>0.901343510895065</v>
+        <v>0.9721739463265944</v>
       </c>
       <c r="AC7">
-        <v>0.9176380038196035</v>
+        <v>0.9721739463265944</v>
       </c>
       <c r="AD7">
-        <v>0.9176380038196035</v>
+        <v>0.9721739463265944</v>
       </c>
       <c r="AE7">
-        <v>0.9176380038196035</v>
+        <v>0.9721739463265944</v>
       </c>
       <c r="AF7">
-        <v>0.9261549517195476</v>
+        <v>0.9721739463265944</v>
       </c>
       <c r="AG7">
-        <v>0.970085879524801</v>
+        <v>0.9983221411135009</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2575,97 +2575,97 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2119823246241515</v>
+        <v>0.3025700686217221</v>
       </c>
       <c r="F8">
-        <v>0.3442158634813104</v>
+        <v>0.4731260196682417</v>
       </c>
       <c r="G8">
-        <v>0.3741280709965467</v>
+        <v>0.4743018336216316</v>
       </c>
       <c r="H8">
-        <v>0.3741280709965467</v>
+        <v>0.4743018336216316</v>
       </c>
       <c r="I8">
-        <v>0.4075285465447527</v>
+        <v>0.4812520380163226</v>
       </c>
       <c r="J8">
-        <v>0.4075285465447527</v>
+        <v>0.4812520380163226</v>
       </c>
       <c r="K8">
-        <v>0.434051429947751</v>
+        <v>0.4812520380163226</v>
       </c>
       <c r="L8">
-        <v>0.5120711746442304</v>
+        <v>0.5620638490399856</v>
       </c>
       <c r="M8">
-        <v>0.6945714093384286</v>
+        <v>0.8158300136405581</v>
       </c>
       <c r="N8">
-        <v>0.6980289340817425</v>
+        <v>0.8158300136405581</v>
       </c>
       <c r="O8">
-        <v>0.7201460699484905</v>
+        <v>0.8158300136405581</v>
       </c>
       <c r="P8">
-        <v>0.7222242071086834</v>
+        <v>0.8158300136405581</v>
       </c>
       <c r="Q8">
-        <v>0.735186762349858</v>
+        <v>0.8158300136405581</v>
       </c>
       <c r="R8">
-        <v>0.735186762349858</v>
+        <v>0.8158300136405581</v>
       </c>
       <c r="S8">
-        <v>0.735186762349858</v>
+        <v>0.8158300136405581</v>
       </c>
       <c r="T8">
-        <v>0.735186762349858</v>
+        <v>0.8158300136405581</v>
       </c>
       <c r="U8">
-        <v>0.749011523464608</v>
+        <v>0.8158300136405581</v>
       </c>
       <c r="V8">
-        <v>0.8743963046166028</v>
+        <v>0.975048704862517</v>
       </c>
       <c r="W8">
-        <v>0.8743963046166028</v>
+        <v>0.975048704862517</v>
       </c>
       <c r="X8">
-        <v>0.8743963046166028</v>
+        <v>0.975048704862517</v>
       </c>
       <c r="Y8">
-        <v>0.8743963046166028</v>
+        <v>0.975048704862517</v>
       </c>
       <c r="Z8">
-        <v>0.8846710369919877</v>
+        <v>0.975048704862517</v>
       </c>
       <c r="AA8">
-        <v>0.8896044429482129</v>
+        <v>0.975048704862517</v>
       </c>
       <c r="AB8">
-        <v>0.8896044429482129</v>
+        <v>0.975048704862517</v>
       </c>
       <c r="AC8">
-        <v>0.9198560929410905</v>
+        <v>0.9767864232853277</v>
       </c>
       <c r="AD8">
-        <v>0.9252421700239418</v>
+        <v>0.9767864232853277</v>
       </c>
       <c r="AE8">
-        <v>0.9252421700239418</v>
+        <v>0.9767864232853277</v>
       </c>
       <c r="AF8">
-        <v>0.9270269313236138</v>
+        <v>0.9767864232853277</v>
       </c>
       <c r="AG8">
-        <v>0.9677480486236675</v>
+        <v>0.9958550323887503</v>
       </c>
       <c r="AH8">
-        <v>0.9994539006620743</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9994539006620743</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2508505950820307</v>
+        <v>0.3622962342306175</v>
       </c>
       <c r="E9">
-        <v>0.3812140945008838</v>
+        <v>0.5273029438996262</v>
       </c>
       <c r="F9">
-        <v>0.4658605458021388</v>
+        <v>0.6174510586474392</v>
       </c>
       <c r="G9">
-        <v>0.4758770099126981</v>
+        <v>0.6174510586474392</v>
       </c>
       <c r="H9">
-        <v>0.5014174198365552</v>
+        <v>0.6174510586474392</v>
       </c>
       <c r="I9">
-        <v>0.5014174198365552</v>
+        <v>0.6174510586474392</v>
       </c>
       <c r="J9">
-        <v>0.5186234320170456</v>
+        <v>0.6174510586474392</v>
       </c>
       <c r="K9">
-        <v>0.6034874028813374</v>
+        <v>0.7079553470662847</v>
       </c>
       <c r="L9">
-        <v>0.7329823626174571</v>
+        <v>0.8715398813552145</v>
       </c>
       <c r="M9">
-        <v>0.7329823626174571</v>
+        <v>0.8715398813552145</v>
       </c>
       <c r="N9">
-        <v>0.7545468642463518</v>
+        <v>0.8715398813552145</v>
       </c>
       <c r="O9">
-        <v>0.7558564186379817</v>
+        <v>0.8715398813552145</v>
       </c>
       <c r="P9">
-        <v>0.7558564186379817</v>
+        <v>0.8715398813552145</v>
       </c>
       <c r="Q9">
-        <v>0.7558564186379817</v>
+        <v>0.8715398813552145</v>
       </c>
       <c r="R9">
-        <v>0.7558564186379817</v>
+        <v>0.8715398813552145</v>
       </c>
       <c r="S9">
-        <v>0.7582943724292633</v>
+        <v>0.8715398813552145</v>
       </c>
       <c r="T9">
-        <v>0.7748700972303667</v>
+        <v>0.8715398813552145</v>
       </c>
       <c r="U9">
-        <v>0.86474000204124</v>
+        <v>0.9702410503019864</v>
       </c>
       <c r="V9">
-        <v>0.8701107828864575</v>
+        <v>0.9702410503019864</v>
       </c>
       <c r="W9">
-        <v>0.8701107828864575</v>
+        <v>0.9702410503019864</v>
       </c>
       <c r="X9">
-        <v>0.8701107828864575</v>
+        <v>0.9702410503019864</v>
       </c>
       <c r="Y9">
-        <v>0.875078325731482</v>
+        <v>0.9702410503019864</v>
       </c>
       <c r="Z9">
-        <v>0.8857748473546906</v>
+        <v>0.9702410503019864</v>
       </c>
       <c r="AA9">
-        <v>0.8860239988354699</v>
+        <v>0.9702410503019864</v>
       </c>
       <c r="AB9">
-        <v>0.9212135778865315</v>
+        <v>0.9794068593610514</v>
       </c>
       <c r="AC9">
-        <v>0.9214115210511142</v>
+        <v>0.9794068593610514</v>
       </c>
       <c r="AD9">
-        <v>0.9214115210511142</v>
+        <v>0.9794068593610514</v>
       </c>
       <c r="AE9">
-        <v>0.923606932138197</v>
+        <v>0.9794068593610514</v>
       </c>
       <c r="AF9">
-        <v>0.9657753206131228</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG9">
-        <v>0.9940648022096453</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH9">
-        <v>0.9940648022096453</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2792,97 +2792,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1433680480389829</v>
+        <v>0.1872923075179737</v>
       </c>
       <c r="E10">
-        <v>0.1433680480389829</v>
+        <v>0.1872923075179737</v>
       </c>
       <c r="F10">
-        <v>0.3117551837902</v>
+        <v>0.4158328636550189</v>
       </c>
       <c r="G10">
-        <v>0.3277435455941791</v>
+        <v>0.4158328636550189</v>
       </c>
       <c r="H10">
-        <v>0.3706635831255842</v>
+        <v>0.4375194321323312</v>
       </c>
       <c r="I10">
-        <v>0.3743628995660894</v>
+        <v>0.4375194321323312</v>
       </c>
       <c r="J10">
-        <v>0.3851121190549028</v>
+        <v>0.4375194321323312</v>
       </c>
       <c r="K10">
-        <v>0.3901572144250648</v>
+        <v>0.4375194321323312</v>
       </c>
       <c r="L10">
-        <v>0.6557161154352252</v>
+        <v>0.8262642762216899</v>
       </c>
       <c r="M10">
-        <v>0.6666485858638098</v>
+        <v>0.8262642762216899</v>
       </c>
       <c r="N10">
-        <v>0.6675796020841549</v>
+        <v>0.8262642762216899</v>
       </c>
       <c r="O10">
-        <v>0.698401125114232</v>
+        <v>0.8280043726368658</v>
       </c>
       <c r="P10">
-        <v>0.7045199964353772</v>
+        <v>0.8280043726368658</v>
       </c>
       <c r="Q10">
-        <v>0.7045199964353772</v>
+        <v>0.8280043726368658</v>
       </c>
       <c r="R10">
-        <v>0.7045199964353772</v>
+        <v>0.8280043726368658</v>
       </c>
       <c r="S10">
-        <v>0.7052442498556986</v>
+        <v>0.8280043726368658</v>
       </c>
       <c r="T10">
-        <v>0.7052442498556986</v>
+        <v>0.8280043726368658</v>
       </c>
       <c r="U10">
-        <v>0.7950181095562564</v>
+        <v>0.9269374869441416</v>
       </c>
       <c r="V10">
-        <v>0.8475128212432314</v>
+        <v>0.9644095446670276</v>
       </c>
       <c r="W10">
-        <v>0.8481904336795082</v>
+        <v>0.9644095446670276</v>
       </c>
       <c r="X10">
-        <v>0.8481904336795082</v>
+        <v>0.9644095446670276</v>
       </c>
       <c r="Y10">
-        <v>0.8481904336795082</v>
+        <v>0.9644095446670276</v>
       </c>
       <c r="Z10">
-        <v>0.8641923692355877</v>
+        <v>0.9644095446670276</v>
       </c>
       <c r="AA10">
-        <v>0.8641923692355877</v>
+        <v>0.9644095446670276</v>
       </c>
       <c r="AB10">
-        <v>0.890872953368848</v>
+        <v>0.9644095446670276</v>
       </c>
       <c r="AC10">
-        <v>0.9086056348299997</v>
+        <v>0.9644095446670276</v>
       </c>
       <c r="AD10">
-        <v>0.9086056348299997</v>
+        <v>0.9644095446670276</v>
       </c>
       <c r="AE10">
-        <v>0.9096642335710446</v>
+        <v>0.9644095446670276</v>
       </c>
       <c r="AF10">
-        <v>0.9400445083348995</v>
+        <v>0.9654221677867254</v>
       </c>
       <c r="AG10">
-        <v>0.9907837301693799</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9946385324159459</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1789080923896882</v>
+        <v>0.2465642266984814</v>
       </c>
       <c r="E11">
-        <v>0.1801151618734335</v>
+        <v>0.2465642266984814</v>
       </c>
       <c r="F11">
-        <v>0.3533935911651157</v>
+        <v>0.4838180342675741</v>
       </c>
       <c r="G11">
-        <v>0.378831627475026</v>
+        <v>0.4838180342675741</v>
       </c>
       <c r="H11">
-        <v>0.3991360084493112</v>
+        <v>0.4838180342675741</v>
       </c>
       <c r="I11">
-        <v>0.3991360084493112</v>
+        <v>0.4838180342675741</v>
       </c>
       <c r="J11">
-        <v>0.4230573081632856</v>
+        <v>0.4838180342675741</v>
       </c>
       <c r="K11">
-        <v>0.43796236642785</v>
+        <v>0.4838180342675741</v>
       </c>
       <c r="L11">
-        <v>0.6897122365111291</v>
+        <v>0.8508490577619949</v>
       </c>
       <c r="M11">
-        <v>0.6912993482920411</v>
+        <v>0.8508490577619949</v>
       </c>
       <c r="N11">
-        <v>0.6921892428105836</v>
+        <v>0.8508490577619949</v>
       </c>
       <c r="O11">
-        <v>0.7074866696879133</v>
+        <v>0.8508490577619949</v>
       </c>
       <c r="P11">
-        <v>0.7103328619036875</v>
+        <v>0.8508490577619949</v>
       </c>
       <c r="Q11">
-        <v>0.7103328619036875</v>
+        <v>0.8508490577619949</v>
       </c>
       <c r="R11">
-        <v>0.7103328619036875</v>
+        <v>0.8508490577619949</v>
       </c>
       <c r="S11">
-        <v>0.7154680763857907</v>
+        <v>0.8508490577619949</v>
       </c>
       <c r="T11">
-        <v>0.7154680763857907</v>
+        <v>0.8508490577619949</v>
       </c>
       <c r="U11">
-        <v>0.8166843149478287</v>
+        <v>0.9689253608526092</v>
       </c>
       <c r="V11">
-        <v>0.8549217463473351</v>
+        <v>0.9828463919945696</v>
       </c>
       <c r="W11">
-        <v>0.8573742132458602</v>
+        <v>0.9828463919945696</v>
       </c>
       <c r="X11">
-        <v>0.8573742132458602</v>
+        <v>0.9828463919945696</v>
       </c>
       <c r="Y11">
-        <v>0.8573742132458602</v>
+        <v>0.9828463919945696</v>
       </c>
       <c r="Z11">
-        <v>0.8730811425342354</v>
+        <v>0.9828463919945696</v>
       </c>
       <c r="AA11">
-        <v>0.8730811425342354</v>
+        <v>0.9828463919945696</v>
       </c>
       <c r="AB11">
-        <v>0.9022323321601675</v>
+        <v>0.9828463919945696</v>
       </c>
       <c r="AC11">
-        <v>0.9251772086719664</v>
+        <v>0.9828463919945696</v>
       </c>
       <c r="AD11">
-        <v>0.9251772086719664</v>
+        <v>0.9828463919945696</v>
       </c>
       <c r="AE11">
-        <v>0.9262334279889763</v>
+        <v>0.9828463919945696</v>
       </c>
       <c r="AF11">
-        <v>0.9502598988924046</v>
+        <v>0.9828463919945696</v>
       </c>
       <c r="AG11">
-        <v>0.9904519489215172</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>0.9956523178154367</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5039522822527344</v>
       </c>
       <c r="F2">
-        <v>0.5876281666812868</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>47</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5279771034512297</v>
       </c>
       <c r="F3">
-        <v>0.5629271692738267</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>47</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0.01104823251270184</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.7141605684023802</v>
+      </c>
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5835453324416986</v>
-      </c>
       <c r="G4">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>47</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.6888647776147154</v>
+      </c>
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.6507229202933464</v>
-      </c>
       <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>47</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5071788225017835</v>
       </c>
       <c r="F6">
-        <v>0.6387351731602777</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>47</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5641730692553799</v>
       </c>
       <c r="F7">
-        <v>0.5946745696955581</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>47</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5620638490399856</v>
+      </c>
+      <c r="F8">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5120711746442304</v>
-      </c>
       <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
         <v>9</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>47</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5273029438996262</v>
       </c>
       <c r="F9">
-        <v>0.5014174198365552</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>47</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.8262642762216899</v>
+      </c>
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.6557161154352252</v>
-      </c>
       <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>47</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.8508490577619949</v>
+      </c>
+      <c r="F11">
         <v>11</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.6897122365111291</v>
-      </c>
       <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>47</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.7</v>
+      </c>
+      <c r="E2">
+        <v>0.8107050373378903</v>
+      </c>
+      <c r="F2">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7127856406822769</v>
-      </c>
       <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
         <v>11</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>47</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8017638953454967</v>
       </c>
       <c r="F3">
-        <v>0.8361912209621337</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>47</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0.01104823251270184</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7141605684023802</v>
       </c>
       <c r="F4">
-        <v>0.7538377265362578</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>47</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7282747846943153</v>
       </c>
       <c r="F5">
-        <v>0.7847441147812565</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>47</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7303924071981313</v>
       </c>
       <c r="F6">
-        <v>0.8103980657074468</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>47</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.731174644432541</v>
       </c>
       <c r="F7">
-        <v>0.705798729417762</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>47</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8158300136405581</v>
       </c>
       <c r="F8">
-        <v>0.7201460699484905</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>47</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7079553470662847</v>
       </c>
       <c r="F9">
-        <v>0.7329823626174571</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>47</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8262642762216899</v>
       </c>
       <c r="F10">
-        <v>0.7045199964353772</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>47</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8508490577619949</v>
       </c>
       <c r="F11">
-        <v>0.7074866696879133</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>47</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8107050373378903</v>
       </c>
       <c r="F2">
-        <v>0.8971738261809182</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>47</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8017638953454967</v>
       </c>
       <c r="F3">
-        <v>0.8361912209621337</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>47</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0.01104823251270184</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8463811476147383</v>
       </c>
       <c r="F4">
-        <v>0.8766468811787853</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>47</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8180629909839769</v>
       </c>
       <c r="F5">
-        <v>0.8010190498455746</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>47</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <v>0.9073619146151271</v>
+      </c>
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8103980657074468</v>
-      </c>
       <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
         <v>18</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>47</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8070468462707263</v>
       </c>
       <c r="F7">
-        <v>0.8733868798388802</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>47</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8158300136405581</v>
       </c>
       <c r="F8">
-        <v>0.8743963046166028</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>47</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8715398813552145</v>
       </c>
       <c r="F9">
-        <v>0.86474000204124</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>47</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8262642762216899</v>
       </c>
       <c r="F10">
-        <v>0.8475128212432314</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>47</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8508490577619949</v>
       </c>
       <c r="F11">
-        <v>0.8166843149478287</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>47</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9849116755444323</v>
       </c>
       <c r="F2">
-        <v>0.9280132056887567</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>47</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F3">
-        <v>0.9043353366160198</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>47</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0.01104823251270184</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9936028756785646</v>
       </c>
       <c r="F4">
-        <v>0.9213464524569328</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>47</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>0.9633441070153784</v>
+      </c>
+      <c r="F5">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9500389873275229</v>
-      </c>
       <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
         <v>19</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>47</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9073619146151271</v>
       </c>
       <c r="F6">
-        <v>0.9044115496534464</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>47</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9721739463265944</v>
       </c>
       <c r="F7">
-        <v>0.9010943961127063</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>47</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.975048704862517</v>
       </c>
       <c r="F8">
-        <v>0.9198560929410905</v>
+        <v>21</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>47</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9702410503019864</v>
       </c>
       <c r="F9">
-        <v>0.9212135778865315</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>47</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9269374869441416</v>
       </c>
       <c r="F10">
-        <v>0.9086056348299997</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>47</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9689253608526092</v>
       </c>
       <c r="F11">
-        <v>0.9022323321601675</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>47</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
